--- a/Data/Contact Angle Measurements.xlsx
+++ b/Data/Contact Angle Measurements.xlsx
@@ -1435,6 +1435,12 @@
       <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E11" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>61.13</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
@@ -1449,6 +1455,12 @@
       <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E12" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>63.67</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
@@ -5223,6 +5235,12 @@
       <c r="D201" s="1" t="s">
         <v>217</v>
       </c>
+      <c r="E201" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F201" s="4">
+        <v>58.62</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
@@ -5237,6 +5255,12 @@
       <c r="D202" s="1" t="s">
         <v>218</v>
       </c>
+      <c r="E202" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F202" s="4">
+        <v>61.56</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
@@ -5251,6 +5275,12 @@
       <c r="D203" s="1" t="s">
         <v>219</v>
       </c>
+      <c r="E203" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F203" s="4">
+        <v>61.47</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
@@ -5265,6 +5295,12 @@
       <c r="D204" s="1" t="s">
         <v>220</v>
       </c>
+      <c r="E204" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F204" s="4">
+        <v>57.11</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="s">
@@ -5279,6 +5315,12 @@
       <c r="D205" s="1" t="s">
         <v>221</v>
       </c>
+      <c r="E205" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F205" s="4">
+        <v>59.25</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
@@ -5293,6 +5335,12 @@
       <c r="D206" s="1" t="s">
         <v>222</v>
       </c>
+      <c r="E206" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F206" s="4">
+        <v>57.59</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="s">
@@ -5307,6 +5355,12 @@
       <c r="D207" s="1" t="s">
         <v>223</v>
       </c>
+      <c r="E207" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F207" s="4">
+        <v>53.59</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="s">
@@ -5321,6 +5375,12 @@
       <c r="D208" s="1" t="s">
         <v>224</v>
       </c>
+      <c r="E208" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F208" s="4">
+        <v>64.75</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
@@ -5335,6 +5395,12 @@
       <c r="D209" s="1" t="s">
         <v>225</v>
       </c>
+      <c r="E209" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F209" s="4">
+        <v>53.39</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
@@ -5349,6 +5415,12 @@
       <c r="D210" s="1" t="s">
         <v>226</v>
       </c>
+      <c r="E210" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F210" s="4">
+        <v>64.19</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
@@ -5363,6 +5435,12 @@
       <c r="D211" s="1" t="s">
         <v>227</v>
       </c>
+      <c r="E211" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F211" s="4">
+        <v>63.97</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
@@ -5377,6 +5455,12 @@
       <c r="D212" s="1" t="s">
         <v>228</v>
       </c>
+      <c r="E212" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F212" s="4">
+        <v>60.65</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
@@ -5391,6 +5475,12 @@
       <c r="D213" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="E213" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F213" s="4">
+        <v>58.68</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="s">
@@ -5405,6 +5495,12 @@
       <c r="D214" s="1" t="s">
         <v>230</v>
       </c>
+      <c r="E214" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F214" s="4">
+        <v>58.61</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="s">
@@ -5419,6 +5515,12 @@
       <c r="D215" s="1" t="s">
         <v>231</v>
       </c>
+      <c r="E215" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F215" s="4">
+        <v>53.31</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
@@ -5433,6 +5535,12 @@
       <c r="D216" s="1" t="s">
         <v>232</v>
       </c>
+      <c r="E216" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F216" s="4">
+        <v>65.28</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="s">
@@ -5447,6 +5555,12 @@
       <c r="D217" s="1" t="s">
         <v>233</v>
       </c>
+      <c r="E217" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F217" s="4">
+        <v>60.51</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
@@ -5461,6 +5575,12 @@
       <c r="D218" s="1" t="s">
         <v>234</v>
       </c>
+      <c r="E218" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F218" s="4">
+        <v>62.15</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
@@ -5475,6 +5595,12 @@
       <c r="D219" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="E219" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F219" s="4">
+        <v>57.66</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
@@ -5489,6 +5615,12 @@
       <c r="D220" s="1" t="s">
         <v>236</v>
       </c>
+      <c r="E220" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F220" s="4">
+        <v>70.9</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
@@ -5503,6 +5635,12 @@
       <c r="D221" s="1" t="s">
         <v>237</v>
       </c>
+      <c r="E221" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F221" s="4">
+        <v>62.73</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="s">
@@ -5517,6 +5655,12 @@
       <c r="D222" s="1" t="s">
         <v>238</v>
       </c>
+      <c r="E222" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F222" s="4">
+        <v>62.39</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="s">
@@ -5531,6 +5675,12 @@
       <c r="D223" s="1" t="s">
         <v>239</v>
       </c>
+      <c r="E223" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F223" s="4">
+        <v>69.67</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
@@ -5545,6 +5695,12 @@
       <c r="D224" s="1" t="s">
         <v>240</v>
       </c>
+      <c r="E224" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F224" s="4">
+        <v>59.34</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
@@ -5559,6 +5715,12 @@
       <c r="D225" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="E225" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F225" s="4">
+        <v>68.0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="s">
@@ -5573,6 +5735,12 @@
       <c r="D226" s="1" t="s">
         <v>242</v>
       </c>
+      <c r="E226" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F226" s="4">
+        <v>68.06</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
@@ -5587,6 +5755,12 @@
       <c r="D227" s="1" t="s">
         <v>243</v>
       </c>
+      <c r="E227" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F227" s="4">
+        <v>76.21</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="s">
@@ -5601,6 +5775,12 @@
       <c r="D228" s="1" t="s">
         <v>244</v>
       </c>
+      <c r="E228" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F228" s="4">
+        <v>58.58</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="s">
@@ -5615,6 +5795,12 @@
       <c r="D229" s="1" t="s">
         <v>245</v>
       </c>
+      <c r="E229" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F229" s="4">
+        <v>54.56</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="s">
@@ -5629,6 +5815,12 @@
       <c r="D230" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="E230" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F230" s="4">
+        <v>31.34</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
@@ -5643,6 +5835,12 @@
       <c r="D231" s="1" t="s">
         <v>247</v>
       </c>
+      <c r="E231" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F231" s="4">
+        <v>55.82</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="s">
@@ -5657,6 +5855,12 @@
       <c r="D232" s="1" t="s">
         <v>248</v>
       </c>
+      <c r="E232" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F232" s="4">
+        <v>41.02</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
@@ -5671,6 +5875,12 @@
       <c r="D233" s="1" t="s">
         <v>249</v>
       </c>
+      <c r="E233" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F233" s="4">
+        <v>59.82</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
@@ -5685,6 +5895,12 @@
       <c r="D234" s="1" t="s">
         <v>250</v>
       </c>
+      <c r="E234" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F234" s="4">
+        <v>54.89</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="s">
@@ -5699,6 +5915,12 @@
       <c r="D235" s="1" t="s">
         <v>251</v>
       </c>
+      <c r="E235" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F235" s="4">
+        <v>57.23</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="s">
@@ -5713,6 +5935,12 @@
       <c r="D236" s="1" t="s">
         <v>252</v>
       </c>
+      <c r="E236" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F236" s="4">
+        <v>68.71</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="s">
@@ -5727,6 +5955,12 @@
       <c r="D237" s="1" t="s">
         <v>253</v>
       </c>
+      <c r="E237" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F237" s="4">
+        <v>58.3</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="s">
@@ -5741,6 +5975,12 @@
       <c r="D238" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="E238" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F238" s="4">
+        <v>67.82</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
@@ -5755,6 +5995,12 @@
       <c r="D239" s="1" t="s">
         <v>255</v>
       </c>
+      <c r="E239" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F239" s="4">
+        <v>69.51</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="s">
@@ -5769,6 +6015,12 @@
       <c r="D240" s="1" t="s">
         <v>256</v>
       </c>
+      <c r="E240" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F240" s="4">
+        <v>58.68</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="s">
@@ -5783,6 +6035,12 @@
       <c r="D241" s="1" t="s">
         <v>257</v>
       </c>
+      <c r="E241" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F241" s="4">
+        <v>55.07</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="s">
@@ -5797,6 +6055,12 @@
       <c r="D242" s="1" t="s">
         <v>258</v>
       </c>
+      <c r="E242" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F242" s="4">
+        <v>59.96</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="s">
@@ -5811,6 +6075,12 @@
       <c r="D243" s="1" t="s">
         <v>259</v>
       </c>
+      <c r="E243" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F243" s="4">
+        <v>58.23</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="s">
@@ -5825,6 +6095,12 @@
       <c r="D244" s="1" t="s">
         <v>260</v>
       </c>
+      <c r="E244" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F244" s="4">
+        <v>35.97</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="s">
@@ -5839,6 +6115,12 @@
       <c r="D245" s="1" t="s">
         <v>261</v>
       </c>
+      <c r="E245" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F245" s="4">
+        <v>50.41</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="s">
@@ -5853,6 +6135,12 @@
       <c r="D246" s="1" t="s">
         <v>262</v>
       </c>
+      <c r="E246" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F246" s="4">
+        <v>58.65</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
@@ -5867,6 +6155,12 @@
       <c r="D247" s="1" t="s">
         <v>263</v>
       </c>
+      <c r="E247" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F247" s="4">
+        <v>56.57</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
@@ -5881,6 +6175,12 @@
       <c r="D248" s="1" t="s">
         <v>264</v>
       </c>
+      <c r="E248" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F248" s="4">
+        <v>33.09</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="s">
@@ -5895,6 +6195,12 @@
       <c r="D249" s="1" t="s">
         <v>265</v>
       </c>
+      <c r="E249" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F249" s="4">
+        <v>33.09</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="s">
@@ -5909,6 +6215,12 @@
       <c r="D250" s="1" t="s">
         <v>266</v>
       </c>
+      <c r="E250" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F250" s="4">
+        <v>71.45</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="s">
@@ -5923,6 +6235,12 @@
       <c r="D251" s="1" t="s">
         <v>267</v>
       </c>
+      <c r="E251" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F251" s="4">
+        <v>16.57</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
@@ -5937,6 +6255,12 @@
       <c r="D252" s="1" t="s">
         <v>268</v>
       </c>
+      <c r="E252" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F252" s="4">
+        <v>75.96</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
@@ -5951,6 +6275,12 @@
       <c r="D253" s="1" t="s">
         <v>269</v>
       </c>
+      <c r="E253" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F253" s="4">
+        <v>54.17</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
@@ -5965,6 +6295,12 @@
       <c r="D254" s="1" t="s">
         <v>270</v>
       </c>
+      <c r="E254" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F254" s="4">
+        <v>59.36</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
@@ -5979,6 +6315,12 @@
       <c r="D255" s="1" t="s">
         <v>271</v>
       </c>
+      <c r="E255" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F255" s="4">
+        <v>69.54</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="s">
@@ -5993,6 +6335,12 @@
       <c r="D256" s="1" t="s">
         <v>272</v>
       </c>
+      <c r="E256" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F256" s="4">
+        <v>45.45</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="s">
@@ -6007,6 +6355,12 @@
       <c r="D257" s="1" t="s">
         <v>273</v>
       </c>
+      <c r="E257" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F257" s="4">
+        <v>61.16</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="s">
@@ -6021,6 +6375,12 @@
       <c r="D258" s="1" t="s">
         <v>274</v>
       </c>
+      <c r="E258" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F258" s="4">
+        <v>67.81</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
@@ -6035,6 +6395,12 @@
       <c r="D259" s="1" t="s">
         <v>275</v>
       </c>
+      <c r="E259" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F259" s="4">
+        <v>68.97</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
@@ -6049,6 +6415,12 @@
       <c r="D260" s="1" t="s">
         <v>276</v>
       </c>
+      <c r="E260" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F260" s="4">
+        <v>59.9</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="s">
@@ -6063,6 +6435,12 @@
       <c r="D261" s="1" t="s">
         <v>277</v>
       </c>
+      <c r="E261" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F261" s="4">
+        <v>69.06</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
@@ -6077,6 +6455,12 @@
       <c r="D262" s="1" t="s">
         <v>278</v>
       </c>
+      <c r="E262" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F262" s="4">
+        <v>68.08</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="s">
@@ -6091,6 +6475,12 @@
       <c r="D263" s="1" t="s">
         <v>279</v>
       </c>
+      <c r="E263" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F263" s="4">
+        <v>42.34</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="s">
@@ -6105,6 +6495,12 @@
       <c r="D264" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="E264" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F264" s="4">
+        <v>58.25</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="s">
@@ -6119,6 +6515,12 @@
       <c r="D265" s="1" t="s">
         <v>281</v>
       </c>
+      <c r="E265" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F265" s="4">
+        <v>56.41</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="s">
@@ -6133,6 +6535,12 @@
       <c r="D266" s="1" t="s">
         <v>282</v>
       </c>
+      <c r="E266" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F266" s="4">
+        <v>77.94</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="s">
@@ -6147,6 +6555,12 @@
       <c r="D267" s="1" t="s">
         <v>283</v>
       </c>
+      <c r="E267" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F267" s="4">
+        <v>74.05</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="s">
@@ -6161,6 +6575,12 @@
       <c r="D268" s="1" t="s">
         <v>284</v>
       </c>
+      <c r="E268" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F268" s="4">
+        <v>66.08</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="s">
@@ -6175,6 +6595,12 @@
       <c r="D269" s="1" t="s">
         <v>285</v>
       </c>
+      <c r="E269" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F269" s="4">
+        <v>43.54</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="s">
@@ -6189,6 +6615,12 @@
       <c r="D270" s="1" t="s">
         <v>286</v>
       </c>
+      <c r="E270" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F270" s="4">
+        <v>50.44</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="s">
@@ -6203,6 +6635,12 @@
       <c r="D271" s="1" t="s">
         <v>287</v>
       </c>
+      <c r="E271" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F271" s="4">
+        <v>51.75</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="s">
@@ -6217,6 +6655,12 @@
       <c r="D272" s="1" t="s">
         <v>288</v>
       </c>
+      <c r="E272" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F272" s="4">
+        <v>70.96</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="s">
@@ -6231,6 +6675,12 @@
       <c r="D273" s="1" t="s">
         <v>289</v>
       </c>
+      <c r="E273" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F273" s="4">
+        <v>66.29</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="s">
@@ -6245,6 +6695,12 @@
       <c r="D274" s="1" t="s">
         <v>290</v>
       </c>
+      <c r="E274" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F274" s="4">
+        <v>60.42</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="s">
@@ -6259,6 +6715,12 @@
       <c r="D275" s="1" t="s">
         <v>291</v>
       </c>
+      <c r="E275" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F275" s="4">
+        <v>42.34</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="s">
@@ -6287,6 +6749,12 @@
       <c r="D277" s="1" t="s">
         <v>293</v>
       </c>
+      <c r="E277" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F277" s="4">
+        <v>61.95</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="s">
@@ -6301,6 +6769,12 @@
       <c r="D278" s="1" t="s">
         <v>294</v>
       </c>
+      <c r="E278" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F278" s="4">
+        <v>62.51</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="s">
@@ -6315,6 +6789,12 @@
       <c r="D279" s="1" t="s">
         <v>295</v>
       </c>
+      <c r="E279" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F279" s="4">
+        <v>52.66</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="s">
@@ -6329,6 +6809,12 @@
       <c r="D280" s="1" t="s">
         <v>296</v>
       </c>
+      <c r="E280" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F280" s="4">
+        <v>55.31</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="s">
@@ -6343,6 +6829,12 @@
       <c r="D281" s="1" t="s">
         <v>297</v>
       </c>
+      <c r="E281" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F281" s="4">
+        <v>41.51</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="s">
@@ -6357,6 +6849,12 @@
       <c r="D282" s="1" t="s">
         <v>298</v>
       </c>
+      <c r="E282" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F282" s="4">
+        <v>69.9</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="s">
@@ -6371,6 +6869,12 @@
       <c r="D283" s="1" t="s">
         <v>299</v>
       </c>
+      <c r="E283" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F283" s="4">
+        <v>54.32</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="s">
@@ -6385,6 +6889,12 @@
       <c r="D284" s="1" t="s">
         <v>300</v>
       </c>
+      <c r="E284" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F284" s="4">
+        <v>80.92</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="s">
@@ -6399,6 +6909,12 @@
       <c r="D285" s="1" t="s">
         <v>301</v>
       </c>
+      <c r="E285" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F285" s="4">
+        <v>70.53</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="s">
@@ -6413,6 +6929,12 @@
       <c r="D286" s="1" t="s">
         <v>302</v>
       </c>
+      <c r="E286" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F286" s="4">
+        <v>56.85</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="s">
@@ -6427,6 +6949,12 @@
       <c r="D287" s="1" t="s">
         <v>303</v>
       </c>
+      <c r="E287" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F287" s="4">
+        <v>51.48</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="s">
@@ -6441,6 +6969,12 @@
       <c r="D288" s="1" t="s">
         <v>304</v>
       </c>
+      <c r="E288" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F288" s="4">
+        <v>75.05</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="s">
@@ -6455,6 +6989,12 @@
       <c r="D289" s="1" t="s">
         <v>305</v>
       </c>
+      <c r="E289" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F289" s="4">
+        <v>60.82</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="s">
@@ -6469,6 +7009,12 @@
       <c r="D290" s="1" t="s">
         <v>306</v>
       </c>
+      <c r="E290" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F290" s="4">
+        <v>75.87</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="s">
@@ -6483,6 +7029,12 @@
       <c r="D291" s="1" t="s">
         <v>307</v>
       </c>
+      <c r="E291" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F291" s="4">
+        <v>65.83</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="s">
@@ -6497,6 +7049,12 @@
       <c r="D292" s="1" t="s">
         <v>308</v>
       </c>
+      <c r="E292" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F292" s="4">
+        <v>74.39</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="s">
@@ -6511,6 +7069,12 @@
       <c r="D293" s="1" t="s">
         <v>309</v>
       </c>
+      <c r="E293" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F293" s="4">
+        <v>62.47</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="s">
@@ -6525,6 +7089,12 @@
       <c r="D294" s="1" t="s">
         <v>310</v>
       </c>
+      <c r="E294" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F294" s="4">
+        <v>66.28</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="s">
@@ -6539,6 +7109,12 @@
       <c r="D295" s="1" t="s">
         <v>311</v>
       </c>
+      <c r="E295" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F295" s="4">
+        <v>67.42</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="s">
@@ -6552,6 +7128,12 @@
       </c>
       <c r="D296" s="1" t="s">
         <v>312</v>
+      </c>
+      <c r="E296" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F296" s="4">
+        <v>73.12</v>
       </c>
     </row>
     <row r="297">

--- a/Data/Contact Angle Measurements.xlsx
+++ b/Data/Contact Angle Measurements.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madisonplunkert/Documents/GitHub/Leaf-surface-traits-2024/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC8F27E-5F17-404F-BD53-3569038B23E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="322">
   <si>
     <t>pop.code</t>
   </si>
@@ -953,26 +963,59 @@
   </si>
   <si>
     <t>DSC_3732</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Population code, see Table S1 for latitude/longitude coordinates</t>
+  </si>
+  <si>
+    <t>Replicate number. Each replicate corresponds to a different plant of the indicated accession</t>
+  </si>
+  <si>
+    <t>Leaf surface on which drop of water was placed for contact angle measurement. Ad = adaxial, ab = abaxial</t>
+  </si>
+  <si>
+    <t>Name of image file used internally</t>
+  </si>
+  <si>
+    <t>Contact angle in degrees measured by ImageJ Contact Angle Plugin</t>
+  </si>
+  <si>
+    <t>Subjective quality score for contact angle image, as follows: A high-quality image (3) will have well-defined droplet edges, and the interface between the droplet and the leaf surface will be easy to see. The droplet will also be in profile and symmetrical. A medium-quality image (2) will not meet these criteria, but the contact angle can still be estimated. A low-quality image (1) is unreliable.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -981,45 +1024,48 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1209,20 +1255,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F326"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1238,16 +1289,16 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
-        <v>10.0</v>
+      <c r="B2" s="2">
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -1255,19 +1306,19 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3">
         <v>61.34</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
-        <v>10.0</v>
+      <c r="B3" s="2">
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -1275,19 +1326,19 @@
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>68.24</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>68.239999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
-        <v>1.0</v>
+      <c r="B4" s="2">
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -1295,19 +1346,19 @@
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>66.21</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>66.209999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
-        <v>1.0</v>
+      <c r="B5" s="2">
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1315,19 +1366,19 @@
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
         <v>76.75</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3">
-        <v>11.0</v>
+      <c r="B6" s="2">
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -1335,19 +1386,19 @@
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>67.51</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>67.510000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3">
-        <v>11.0</v>
+      <c r="B7" s="2">
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -1355,19 +1406,19 @@
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
         <v>71.08</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
-        <v>7.0</v>
+      <c r="B8" s="2">
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -1375,19 +1426,19 @@
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>67.15</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>67.150000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
-        <v>7.0</v>
+      <c r="B9" s="2">
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -1395,19 +1446,19 @@
       <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3">
         <v>69.34</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3">
-        <v>9.0</v>
+      <c r="B10" s="2">
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
@@ -1415,19 +1466,19 @@
       <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3">
         <v>61.03</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3">
-        <v>9.0</v>
+      <c r="B11" s="2">
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
@@ -1435,19 +1486,19 @@
       <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3">
         <v>61.13</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="3">
-        <v>12.0</v>
+      <c r="B12" s="2">
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -1455,19 +1506,19 @@
       <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
         <v>63.67</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="3">
-        <v>12.0</v>
+      <c r="B13" s="2">
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
@@ -1475,19 +1526,19 @@
       <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3">
         <v>60.74</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="3">
-        <v>15.0</v>
+      <c r="B14" s="2">
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -1495,19 +1546,19 @@
       <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>73.61</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="3">
-        <v>15.0</v>
+      <c r="B15" s="2">
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -1515,19 +1566,19 @@
       <c r="D15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
         <v>71.84</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="3">
-        <v>1.0</v>
+      <c r="B16" s="2">
+        <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
@@ -1535,19 +1586,19 @@
       <c r="D16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3">
         <v>70.13</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="3">
-        <v>1.0</v>
+      <c r="B17" s="2">
+        <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
@@ -1555,19 +1606,19 @@
       <c r="D17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
         <v>67.28</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="3">
-        <v>14.0</v>
+      <c r="B18" s="2">
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
@@ -1575,19 +1626,19 @@
       <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
         <v>84.2</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="3">
-        <v>14.0</v>
+      <c r="B19" s="2">
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
@@ -1595,19 +1646,19 @@
       <c r="D19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
         <v>77.58</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="3">
-        <v>12.0</v>
+      <c r="B20" s="2">
+        <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
@@ -1615,19 +1666,19 @@
       <c r="D20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3">
         <v>62.57</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="3">
-        <v>12.0</v>
+      <c r="B21" s="2">
+        <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>9</v>
@@ -1635,19 +1686,19 @@
       <c r="D21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>67.24</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="E21" s="3">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
+        <v>67.239999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="3">
-        <v>5.0</v>
+      <c r="B22" s="2">
+        <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>7</v>
@@ -1655,19 +1706,19 @@
       <c r="D22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F22" s="4">
+      <c r="E22" s="3">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
         <v>73.28</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="3">
-        <v>5.0</v>
+      <c r="B23" s="2">
+        <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>9</v>
@@ -1675,19 +1726,19 @@
       <c r="D23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3">
         <v>82.22</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="3">
-        <v>2.0</v>
+      <c r="B24" s="2">
+        <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>7</v>
@@ -1695,19 +1746,19 @@
       <c r="D24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="E24" s="3">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3">
         <v>68.95</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="3">
-        <v>2.0</v>
+      <c r="B25" s="2">
+        <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>9</v>
@@ -1715,19 +1766,19 @@
       <c r="D25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F25" s="4">
+      <c r="E25" s="3">
+        <v>3</v>
+      </c>
+      <c r="F25" s="3">
         <v>68.17</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="3">
-        <v>7.0</v>
+      <c r="B26" s="2">
+        <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
@@ -1735,19 +1786,19 @@
       <c r="D26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F26" s="4">
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
+      <c r="F26" s="3">
         <v>62.76</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="3">
-        <v>7.0</v>
+      <c r="B27" s="2">
+        <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>9</v>
@@ -1755,19 +1806,19 @@
       <c r="D27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F27" s="4">
+      <c r="E27" s="3">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3">
         <v>71.52</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="3">
-        <v>6.0</v>
+      <c r="B28" s="2">
+        <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>7</v>
@@ -1775,19 +1826,19 @@
       <c r="D28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F28" s="4">
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
         <v>80.69</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="3">
-        <v>6.0</v>
+      <c r="B29" s="2">
+        <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>9</v>
@@ -1795,19 +1846,19 @@
       <c r="D29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F29" s="4">
+      <c r="E29" s="3">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3">
         <v>84.49</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="3">
-        <v>3.0</v>
+      <c r="B30" s="2">
+        <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>7</v>
@@ -1815,19 +1866,19 @@
       <c r="D30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F30" s="4">
+      <c r="E30" s="3">
+        <v>3</v>
+      </c>
+      <c r="F30" s="3">
         <v>64.62</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="3">
-        <v>3.0</v>
+      <c r="B31" s="2">
+        <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>9</v>
@@ -1835,19 +1886,19 @@
       <c r="D31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F31" s="4">
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
         <v>60.3</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="3">
-        <v>4.0</v>
+      <c r="B32" s="2">
+        <v>4</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>7</v>
@@ -1855,19 +1906,19 @@
       <c r="D32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F32" s="4">
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
         <v>66.67</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="3">
-        <v>4.0</v>
+      <c r="B33" s="2">
+        <v>4</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>9</v>
@@ -1875,19 +1926,19 @@
       <c r="D33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F33" s="4">
+      <c r="E33" s="3">
+        <v>3</v>
+      </c>
+      <c r="F33" s="3">
         <v>70.31</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="3">
-        <v>14.0</v>
+      <c r="B34" s="2">
+        <v>14</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>7</v>
@@ -1895,19 +1946,19 @@
       <c r="D34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F34" s="4">
-        <v>67.65</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="E34" s="3">
+        <v>2</v>
+      </c>
+      <c r="F34" s="3">
+        <v>67.650000000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="3">
-        <v>14.0</v>
+      <c r="B35" s="2">
+        <v>14</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>9</v>
@@ -1915,19 +1966,19 @@
       <c r="D35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F35" s="4">
+      <c r="E35" s="3">
+        <v>3</v>
+      </c>
+      <c r="F35" s="3">
         <v>73.89</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="3">
-        <v>5.0</v>
+      <c r="B36" s="2">
+        <v>5</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>7</v>
@@ -1935,19 +1986,19 @@
       <c r="D36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F36" s="4">
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
         <v>48.81</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="3">
-        <v>5.0</v>
+      <c r="B37" s="2">
+        <v>5</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>9</v>
@@ -1955,19 +2006,19 @@
       <c r="D37" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F37" s="4">
-        <v>65.1</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="E37" s="3">
+        <v>3</v>
+      </c>
+      <c r="F37" s="3">
+        <v>65.099999999999994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="3">
-        <v>13.0</v>
+      <c r="B38" s="2">
+        <v>13</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>7</v>
@@ -1975,19 +2026,19 @@
       <c r="D38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F38" s="4">
+      <c r="E38" s="3">
+        <v>3</v>
+      </c>
+      <c r="F38" s="3">
         <v>73.16</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="3">
-        <v>13.0</v>
+      <c r="B39" s="2">
+        <v>13</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>9</v>
@@ -1995,19 +2046,19 @@
       <c r="D39" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F39" s="4">
+      <c r="E39" s="3">
+        <v>2</v>
+      </c>
+      <c r="F39" s="3">
         <v>52.65</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="3">
-        <v>3.0</v>
+      <c r="B40" s="2">
+        <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>7</v>
@@ -2015,19 +2066,19 @@
       <c r="D40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F40" s="4">
+      <c r="E40" s="3">
+        <v>3</v>
+      </c>
+      <c r="F40" s="3">
         <v>56.77</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="3">
-        <v>3.0</v>
+      <c r="B41" s="2">
+        <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>9</v>
@@ -2035,19 +2086,19 @@
       <c r="D41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F41" s="4">
-        <v>69.15</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="E41" s="3">
+        <v>3</v>
+      </c>
+      <c r="F41" s="3">
+        <v>69.150000000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="3">
-        <v>1.0</v>
+      <c r="B42" s="2">
+        <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>7</v>
@@ -2055,19 +2106,19 @@
       <c r="D42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F42" s="4">
+      <c r="E42" s="3">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3">
         <v>64.44</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="3">
-        <v>1.0</v>
+      <c r="B43" s="2">
+        <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>9</v>
@@ -2075,19 +2126,19 @@
       <c r="D43" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E43" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F43" s="4">
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
         <v>68.2</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="3">
-        <v>3.0</v>
+      <c r="B44" s="2">
+        <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>7</v>
@@ -2095,19 +2146,19 @@
       <c r="D44" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F44" s="4">
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
         <v>75.64</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="3">
-        <v>3.0</v>
+      <c r="B45" s="2">
+        <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>9</v>
@@ -2115,19 +2166,19 @@
       <c r="D45" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F45" s="4">
+      <c r="E45" s="3">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3">
         <v>77.02</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="3">
-        <v>8.0</v>
+      <c r="B46" s="2">
+        <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>7</v>
@@ -2135,19 +2186,19 @@
       <c r="D46" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E46" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F46" s="4">
+      <c r="E46" s="3">
+        <v>3</v>
+      </c>
+      <c r="F46" s="3">
         <v>73.91</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="3">
-        <v>8.0</v>
+      <c r="B47" s="2">
+        <v>8</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>9</v>
@@ -2155,19 +2206,19 @@
       <c r="D47" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E47" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F47" s="4">
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
         <v>85.3</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="3">
-        <v>6.0</v>
+      <c r="B48" s="2">
+        <v>6</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>7</v>
@@ -2175,19 +2226,19 @@
       <c r="D48" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E48" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F48" s="4">
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
         <v>72.08</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="3">
-        <v>6.0</v>
+      <c r="B49" s="2">
+        <v>6</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>9</v>
@@ -2195,19 +2246,19 @@
       <c r="D49" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E49" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F49" s="4">
+      <c r="E49" s="3">
+        <v>2</v>
+      </c>
+      <c r="F49" s="3">
         <v>66.06</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="3">
-        <v>3.0</v>
+      <c r="B50" s="2">
+        <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>9</v>
@@ -2215,19 +2266,19 @@
       <c r="D50" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E50" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F50" s="4">
+      <c r="E50" s="3">
+        <v>2</v>
+      </c>
+      <c r="F50" s="3">
         <v>64.53</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="3">
-        <v>3.0</v>
+      <c r="B51" s="2">
+        <v>3</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>7</v>
@@ -2235,19 +2286,19 @@
       <c r="D51" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E51" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F51" s="4">
+      <c r="E51" s="3">
+        <v>3</v>
+      </c>
+      <c r="F51" s="3">
         <v>75.48</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="3">
-        <v>3.0</v>
+      <c r="B52" s="2">
+        <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>7</v>
@@ -2255,19 +2306,19 @@
       <c r="D52" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E52" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F52" s="4">
+      <c r="E52" s="3">
+        <v>2</v>
+      </c>
+      <c r="F52" s="3">
         <v>67.05</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="3">
-        <v>3.0</v>
+      <c r="B53" s="2">
+        <v>3</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>9</v>
@@ -2275,19 +2326,19 @@
       <c r="D53" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E53" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F53" s="4">
+      <c r="E53" s="3">
+        <v>2</v>
+      </c>
+      <c r="F53" s="3">
         <v>66.37</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="3">
-        <v>8.0</v>
+      <c r="B54" s="2">
+        <v>8</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>7</v>
@@ -2295,19 +2346,19 @@
       <c r="D54" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E54" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F54" s="4">
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
         <v>61.51</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B55" s="3">
-        <v>8.0</v>
+      <c r="B55" s="2">
+        <v>8</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>9</v>
@@ -2315,19 +2366,19 @@
       <c r="D55" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E55" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F55" s="4">
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
         <v>52.34</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="3">
-        <v>2.0</v>
+      <c r="B56" s="2">
+        <v>2</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>7</v>
@@ -2335,19 +2386,19 @@
       <c r="D56" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E56" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F56" s="4">
+      <c r="E56" s="3">
+        <v>2</v>
+      </c>
+      <c r="F56" s="3">
         <v>68.31</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="3">
-        <v>2.0</v>
+      <c r="B57" s="2">
+        <v>2</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>9</v>
@@ -2355,19 +2406,19 @@
       <c r="D57" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E57" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F57" s="4">
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
         <v>56.71</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="3">
-        <v>13.0</v>
+      <c r="B58" s="2">
+        <v>13</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>7</v>
@@ -2375,19 +2426,19 @@
       <c r="D58" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E58" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F58" s="4">
+      <c r="E58" s="3">
+        <v>2</v>
+      </c>
+      <c r="F58" s="3">
         <v>84.65</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="3">
-        <v>13.0</v>
+      <c r="B59" s="2">
+        <v>13</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>9</v>
@@ -2395,19 +2446,19 @@
       <c r="D59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E59" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F59" s="4">
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3">
         <v>86.9</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="3">
-        <v>14.0</v>
+      <c r="B60" s="2">
+        <v>14</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>7</v>
@@ -2415,19 +2466,19 @@
       <c r="D60" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E60" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F60" s="4">
-        <v>71.04</v>
-      </c>
-    </row>
-    <row r="61">
+      <c r="E60" s="3">
+        <v>3</v>
+      </c>
+      <c r="F60" s="3">
+        <v>71.040000000000006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="3">
-        <v>14.0</v>
+      <c r="B61" s="2">
+        <v>14</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>9</v>
@@ -2435,19 +2486,19 @@
       <c r="D61" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E61" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F61" s="4">
+      <c r="E61" s="3">
+        <v>2</v>
+      </c>
+      <c r="F61" s="3">
         <v>85.49</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="3">
-        <v>2.0</v>
+      <c r="B62" s="2">
+        <v>2</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>7</v>
@@ -2455,19 +2506,19 @@
       <c r="D62" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E62" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F62" s="4">
+      <c r="E62" s="3">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3">
         <v>74.56</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="3">
-        <v>2.0</v>
+      <c r="B63" s="2">
+        <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>9</v>
@@ -2475,19 +2526,19 @@
       <c r="D63" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E63" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F63" s="4">
-        <v>78.04</v>
-      </c>
-    </row>
-    <row r="64">
+      <c r="E63" s="3">
+        <v>2</v>
+      </c>
+      <c r="F63" s="3">
+        <v>78.040000000000006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B64" s="3">
-        <v>9.0</v>
+      <c r="B64" s="2">
+        <v>9</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>7</v>
@@ -2495,19 +2546,19 @@
       <c r="D64" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E64" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F64" s="4">
+      <c r="E64" s="3">
+        <v>3</v>
+      </c>
+      <c r="F64" s="3">
         <v>72.06</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="3">
-        <v>9.0</v>
+      <c r="B65" s="2">
+        <v>9</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>9</v>
@@ -2515,19 +2566,19 @@
       <c r="D65" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E65" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F65" s="4">
+      <c r="E65" s="3">
+        <v>3</v>
+      </c>
+      <c r="F65" s="3">
         <v>76.05</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="3">
-        <v>4.0</v>
+      <c r="B66" s="2">
+        <v>4</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>7</v>
@@ -2535,19 +2586,19 @@
       <c r="D66" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E66" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F66" s="4">
-        <v>66.07</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="E66" s="3">
+        <v>3</v>
+      </c>
+      <c r="F66" s="3">
+        <v>66.069999999999993</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="3">
-        <v>4.0</v>
+      <c r="B67" s="2">
+        <v>4</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>9</v>
@@ -2555,19 +2606,19 @@
       <c r="D67" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E67" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F67" s="4">
+      <c r="E67" s="3">
+        <v>2</v>
+      </c>
+      <c r="F67" s="3">
         <v>78.41</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B68" s="3">
-        <v>7.0</v>
+      <c r="B68" s="2">
+        <v>7</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>7</v>
@@ -2575,19 +2626,19 @@
       <c r="D68" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E68" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F68" s="4">
-        <v>72.54</v>
-      </c>
-    </row>
-    <row r="69">
+      <c r="E68" s="3">
+        <v>3</v>
+      </c>
+      <c r="F68" s="3">
+        <v>72.540000000000006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B69" s="3">
-        <v>7.0</v>
+      <c r="B69" s="2">
+        <v>7</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>9</v>
@@ -2595,19 +2646,19 @@
       <c r="D69" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E69" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F69" s="4">
-        <v>71.04</v>
-      </c>
-    </row>
-    <row r="70">
+      <c r="E69" s="3">
+        <v>3</v>
+      </c>
+      <c r="F69" s="3">
+        <v>71.040000000000006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B70" s="3">
-        <v>11.0</v>
+      <c r="B70" s="2">
+        <v>11</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>7</v>
@@ -2615,19 +2666,19 @@
       <c r="D70" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E70" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F70" s="4">
+      <c r="E70" s="3">
+        <v>1</v>
+      </c>
+      <c r="F70" s="3">
         <v>72.52</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B71" s="3">
-        <v>11.0</v>
+      <c r="B71" s="2">
+        <v>11</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>9</v>
@@ -2635,19 +2686,19 @@
       <c r="D71" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E71" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F71" s="4">
+      <c r="E71" s="3">
+        <v>1</v>
+      </c>
+      <c r="F71" s="3">
         <v>70.83</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B72" s="3">
-        <v>5.0</v>
+      <c r="B72" s="2">
+        <v>5</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>7</v>
@@ -2655,19 +2706,19 @@
       <c r="D72" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E72" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F72" s="4">
+      <c r="E72" s="3">
+        <v>1</v>
+      </c>
+      <c r="F72" s="3">
         <v>74.75</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B73" s="3">
-        <v>5.0</v>
+      <c r="B73" s="2">
+        <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>9</v>
@@ -2675,19 +2726,19 @@
       <c r="D73" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E73" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F73" s="4">
+      <c r="E73" s="3">
+        <v>1</v>
+      </c>
+      <c r="F73" s="3">
         <v>78.19</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B74" s="3">
-        <v>10.0</v>
+      <c r="B74" s="2">
+        <v>10</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>7</v>
@@ -2695,19 +2746,19 @@
       <c r="D74" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E74" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F74" s="4">
+      <c r="E74" s="3">
+        <v>1</v>
+      </c>
+      <c r="F74" s="3">
         <v>89.8</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B75" s="3">
-        <v>10.0</v>
+      <c r="B75" s="2">
+        <v>10</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>9</v>
@@ -2715,19 +2766,19 @@
       <c r="D75" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E75" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F75" s="4">
+      <c r="E75" s="3">
+        <v>2</v>
+      </c>
+      <c r="F75" s="3">
         <v>87.54</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B76" s="3">
-        <v>3.0</v>
+      <c r="B76" s="2">
+        <v>3</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>7</v>
@@ -2735,19 +2786,19 @@
       <c r="D76" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E76" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F76" s="4">
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3">
         <v>75.98</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B77" s="3">
-        <v>3.0</v>
+      <c r="B77" s="2">
+        <v>3</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>9</v>
@@ -2755,19 +2806,19 @@
       <c r="D77" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E77" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F77" s="4">
+      <c r="E77" s="3">
+        <v>1</v>
+      </c>
+      <c r="F77" s="3">
         <v>74.17</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="3">
-        <v>1.0</v>
+      <c r="B78" s="2">
+        <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>7</v>
@@ -2775,19 +2826,19 @@
       <c r="D78" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E78" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F78" s="4">
+      <c r="E78" s="3">
+        <v>1</v>
+      </c>
+      <c r="F78" s="3">
         <v>77.63</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="3">
-        <v>1.0</v>
+      <c r="B79" s="2">
+        <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>9</v>
@@ -2795,19 +2846,19 @@
       <c r="D79" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E79" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F79" s="4">
-        <v>72.51</v>
-      </c>
-    </row>
-    <row r="80">
+      <c r="E79" s="3">
+        <v>1</v>
+      </c>
+      <c r="F79" s="3">
+        <v>72.510000000000005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B80" s="3">
-        <v>12.0</v>
+      <c r="B80" s="2">
+        <v>12</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>7</v>
@@ -2815,19 +2866,19 @@
       <c r="D80" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E80" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F80" s="4">
-        <v>68.15</v>
-      </c>
-    </row>
-    <row r="81">
+      <c r="E80" s="3">
+        <v>2</v>
+      </c>
+      <c r="F80" s="3">
+        <v>68.150000000000006</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B81" s="3">
-        <v>12.0</v>
+      <c r="B81" s="2">
+        <v>12</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>9</v>
@@ -2835,19 +2886,19 @@
       <c r="D81" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E81" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F81" s="4">
+      <c r="E81" s="3">
+        <v>2</v>
+      </c>
+      <c r="F81" s="3">
         <v>76.37</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="3">
-        <v>4.0</v>
+      <c r="B82" s="2">
+        <v>4</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>7</v>
@@ -2855,19 +2906,19 @@
       <c r="D82" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E82" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F82" s="4">
+      <c r="E82" s="3">
+        <v>1</v>
+      </c>
+      <c r="F82" s="3">
         <v>72.62</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B83" s="3">
-        <v>4.0</v>
+      <c r="B83" s="2">
+        <v>4</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>9</v>
@@ -2875,19 +2926,19 @@
       <c r="D83" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E83" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F83" s="4">
-        <v>76.32</v>
-      </c>
-    </row>
-    <row r="84">
+      <c r="E83" s="3">
+        <v>1</v>
+      </c>
+      <c r="F83" s="3">
+        <v>76.319999999999993</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B84" s="3">
-        <v>5.0</v>
+      <c r="B84" s="2">
+        <v>5</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>7</v>
@@ -2895,19 +2946,19 @@
       <c r="D84" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E84" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F84" s="4">
+      <c r="E84" s="3">
+        <v>1</v>
+      </c>
+      <c r="F84" s="3">
         <v>77.61</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B85" s="3">
-        <v>5.0</v>
+      <c r="B85" s="2">
+        <v>5</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>9</v>
@@ -2915,19 +2966,19 @@
       <c r="D85" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E85" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F85" s="4">
+      <c r="E85" s="3">
+        <v>2</v>
+      </c>
+      <c r="F85" s="3">
         <v>58.42</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B86" s="3">
-        <v>6.0</v>
+      <c r="B86" s="2">
+        <v>6</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>7</v>
@@ -2935,19 +2986,19 @@
       <c r="D86" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E86" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F86" s="4">
+      <c r="E86" s="3">
+        <v>2</v>
+      </c>
+      <c r="F86" s="3">
         <v>76.56</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B87" s="3">
-        <v>6.0</v>
+      <c r="B87" s="2">
+        <v>6</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>9</v>
@@ -2955,19 +3006,19 @@
       <c r="D87" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E87" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F87" s="4">
+      <c r="E87" s="3">
+        <v>2</v>
+      </c>
+      <c r="F87" s="3">
         <v>61.6</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B88" s="3">
-        <v>15.0</v>
+      <c r="B88" s="2">
+        <v>15</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>7</v>
@@ -2975,19 +3026,19 @@
       <c r="D88" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E88" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F88" s="4">
+      <c r="E88" s="3">
+        <v>1</v>
+      </c>
+      <c r="F88" s="3">
         <v>55.31</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B89" s="3">
-        <v>15.0</v>
+      <c r="B89" s="2">
+        <v>15</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>9</v>
@@ -2995,19 +3046,19 @@
       <c r="D89" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E89" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F89" s="4">
-        <v>70.51</v>
-      </c>
-    </row>
-    <row r="90">
+      <c r="E89" s="3">
+        <v>1</v>
+      </c>
+      <c r="F89" s="3">
+        <v>70.510000000000005</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B90" s="3">
-        <v>10.0</v>
+      <c r="B90" s="2">
+        <v>10</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>7</v>
@@ -3015,19 +3066,19 @@
       <c r="D90" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E90" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F90" s="4">
+      <c r="E90" s="3">
+        <v>1</v>
+      </c>
+      <c r="F90" s="3">
         <v>73.87</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="3">
-        <v>10.0</v>
+      <c r="B91" s="2">
+        <v>10</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>9</v>
@@ -3035,19 +3086,19 @@
       <c r="D91" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E91" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F91" s="4">
-        <v>78.65</v>
-      </c>
-    </row>
-    <row r="92">
+      <c r="E91" s="3">
+        <v>1</v>
+      </c>
+      <c r="F91" s="3">
+        <v>78.650000000000006</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B92" s="3">
-        <v>2.0</v>
+      <c r="B92" s="2">
+        <v>2</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>7</v>
@@ -3055,19 +3106,19 @@
       <c r="D92" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E92" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F92" s="4">
+      <c r="E92" s="3">
+        <v>2</v>
+      </c>
+      <c r="F92" s="3">
         <v>82.71</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="3">
-        <v>2.0</v>
+      <c r="B93" s="2">
+        <v>2</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>9</v>
@@ -3075,19 +3126,19 @@
       <c r="D93" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E93" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F93" s="4">
+      <c r="E93" s="3">
+        <v>1</v>
+      </c>
+      <c r="F93" s="3">
         <v>66.06</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B94" s="3">
-        <v>9.0</v>
+      <c r="B94" s="2">
+        <v>9</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>7</v>
@@ -3095,19 +3146,19 @@
       <c r="D94" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E94" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F94" s="4">
+      <c r="E94" s="3">
+        <v>1</v>
+      </c>
+      <c r="F94" s="3">
         <v>60.29</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B95" s="3">
-        <v>9.0</v>
+      <c r="B95" s="2">
+        <v>9</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>9</v>
@@ -3115,19 +3166,19 @@
       <c r="D95" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E95" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F95" s="4">
+      <c r="E95" s="3">
+        <v>1</v>
+      </c>
+      <c r="F95" s="3">
         <v>73.36</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B96" s="3">
-        <v>2.0</v>
+      <c r="B96" s="2">
+        <v>2</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>7</v>
@@ -3135,19 +3186,19 @@
       <c r="D96" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E96" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F96" s="4">
+      <c r="E96" s="3">
+        <v>1</v>
+      </c>
+      <c r="F96" s="3">
         <v>59.71</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B97" s="3">
-        <v>2.0</v>
+      <c r="B97" s="2">
+        <v>2</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>9</v>
@@ -3155,19 +3206,19 @@
       <c r="D97" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E97" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F97" s="4">
+      <c r="E97" s="3">
+        <v>2</v>
+      </c>
+      <c r="F97" s="3">
         <v>63.7</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B98" s="3">
-        <v>5.0</v>
+      <c r="B98" s="2">
+        <v>5</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>7</v>
@@ -3175,19 +3226,19 @@
       <c r="D98" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E98" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F98" s="4">
+      <c r="E98" s="3">
+        <v>1</v>
+      </c>
+      <c r="F98" s="3">
         <v>58.07</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B99" s="3">
-        <v>5.0</v>
+      <c r="B99" s="2">
+        <v>5</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>9</v>
@@ -3195,19 +3246,19 @@
       <c r="D99" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E99" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F99" s="4">
+      <c r="E99" s="3">
+        <v>2</v>
+      </c>
+      <c r="F99" s="3">
         <v>82.02</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B100" s="3">
-        <v>1.0</v>
+      <c r="B100" s="2">
+        <v>1</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>7</v>
@@ -3215,19 +3266,19 @@
       <c r="D100" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E100" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F100" s="4">
+      <c r="E100" s="3">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3">
         <v>77.52</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B101" s="3">
-        <v>1.0</v>
+      <c r="B101" s="2">
+        <v>1</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>9</v>
@@ -3235,19 +3286,19 @@
       <c r="D101" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E101" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F101" s="4">
+      <c r="E101" s="3">
+        <v>2</v>
+      </c>
+      <c r="F101" s="3">
         <v>80.38</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B102" s="3">
-        <v>8.0</v>
+      <c r="B102" s="2">
+        <v>8</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>7</v>
@@ -3255,19 +3306,19 @@
       <c r="D102" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E102" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F102" s="4">
-        <v>72.99</v>
-      </c>
-    </row>
-    <row r="103">
+      <c r="E102" s="3">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3">
+        <v>72.989999999999995</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B103" s="3">
-        <v>8.0</v>
+      <c r="B103" s="2">
+        <v>8</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>9</v>
@@ -3275,19 +3326,19 @@
       <c r="D103" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E103" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F103" s="4">
+      <c r="E103" s="3">
+        <v>1</v>
+      </c>
+      <c r="F103" s="3">
         <v>72.89</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B104" s="3">
-        <v>11.0</v>
+      <c r="B104" s="2">
+        <v>11</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>7</v>
@@ -3295,19 +3346,19 @@
       <c r="D104" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E104" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F104" s="4">
+      <c r="E104" s="3">
+        <v>2</v>
+      </c>
+      <c r="F104" s="3">
         <v>80.41</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B105" s="3">
-        <v>11.0</v>
+      <c r="B105" s="2">
+        <v>11</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>9</v>
@@ -3315,19 +3366,19 @@
       <c r="D105" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E105" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F105" s="4">
+      <c r="E105" s="3">
+        <v>2</v>
+      </c>
+      <c r="F105" s="3">
         <v>61.43</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B106" s="3">
-        <v>14.0</v>
+      <c r="B106" s="2">
+        <v>14</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>7</v>
@@ -3335,19 +3386,19 @@
       <c r="D106" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E106" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F106" s="4">
+      <c r="E106" s="3">
+        <v>3</v>
+      </c>
+      <c r="F106" s="3">
         <v>52.85</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B107" s="3">
-        <v>14.0</v>
+      <c r="B107" s="2">
+        <v>14</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>9</v>
@@ -3355,19 +3406,19 @@
       <c r="D107" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E107" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F107" s="4">
+      <c r="E107" s="3">
+        <v>1</v>
+      </c>
+      <c r="F107" s="3">
         <v>54.73</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B108" s="3">
-        <v>13.0</v>
+      <c r="B108" s="2">
+        <v>13</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>7</v>
@@ -3375,19 +3426,19 @@
       <c r="D108" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E108" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F108" s="4">
+      <c r="E108" s="3">
+        <v>1</v>
+      </c>
+      <c r="F108" s="3">
         <v>65.91</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B109" s="3">
-        <v>13.0</v>
+      <c r="B109" s="2">
+        <v>13</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>9</v>
@@ -3395,19 +3446,19 @@
       <c r="D109" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E109" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F109" s="4">
-        <v>65.65</v>
-      </c>
-    </row>
-    <row r="110">
+      <c r="E109" s="3">
+        <v>1</v>
+      </c>
+      <c r="F109" s="3">
+        <v>65.650000000000006</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B110" s="3">
-        <v>7.0</v>
+      <c r="B110" s="2">
+        <v>7</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>7</v>
@@ -3415,19 +3466,19 @@
       <c r="D110" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E110" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F110" s="4">
+      <c r="E110" s="3">
+        <v>2</v>
+      </c>
+      <c r="F110" s="3">
         <v>66.63</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B111" s="3">
-        <v>7.0</v>
+      <c r="B111" s="2">
+        <v>7</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>9</v>
@@ -3435,19 +3486,19 @@
       <c r="D111" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E111" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F111" s="4">
-        <v>76.04</v>
-      </c>
-    </row>
-    <row r="112">
+      <c r="E111" s="3">
+        <v>1</v>
+      </c>
+      <c r="F111" s="3">
+        <v>76.040000000000006</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B112" s="3">
-        <v>9.0</v>
+      <c r="B112" s="2">
+        <v>9</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>7</v>
@@ -3455,19 +3506,19 @@
       <c r="D112" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E112" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F112" s="4">
+      <c r="E112" s="3">
+        <v>3</v>
+      </c>
+      <c r="F112" s="3">
         <v>87.81</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B113" s="3">
-        <v>9.0</v>
+      <c r="B113" s="2">
+        <v>9</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>9</v>
@@ -3475,19 +3526,19 @@
       <c r="D113" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E113" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F113" s="4">
+      <c r="E113" s="3">
+        <v>2</v>
+      </c>
+      <c r="F113" s="3">
         <v>69.83</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B114" s="3">
-        <v>2.0</v>
+      <c r="B114" s="2">
+        <v>2</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>7</v>
@@ -3495,19 +3546,19 @@
       <c r="D114" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E114" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F114" s="4">
-        <v>78.24</v>
-      </c>
-    </row>
-    <row r="115">
+      <c r="E114" s="3">
+        <v>2</v>
+      </c>
+      <c r="F114" s="3">
+        <v>78.239999999999995</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B115" s="3">
-        <v>2.0</v>
+      <c r="B115" s="2">
+        <v>2</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>9</v>
@@ -3515,19 +3566,19 @@
       <c r="D115" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E115" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F115" s="4">
+      <c r="E115" s="3">
+        <v>1</v>
+      </c>
+      <c r="F115" s="3">
         <v>74.31</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B116" s="3">
-        <v>8.0</v>
+      <c r="B116" s="2">
+        <v>8</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>7</v>
@@ -3535,19 +3586,19 @@
       <c r="D116" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E116" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F116" s="4">
+      <c r="E116" s="3">
+        <v>3</v>
+      </c>
+      <c r="F116" s="3">
         <v>59.2</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B117" s="3">
-        <v>8.0</v>
+      <c r="B117" s="2">
+        <v>8</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>9</v>
@@ -3555,19 +3606,19 @@
       <c r="D117" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E117" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F117" s="4">
+      <c r="E117" s="3">
+        <v>2</v>
+      </c>
+      <c r="F117" s="3">
         <v>55.05</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B118" s="3">
-        <v>15.0</v>
+      <c r="B118" s="2">
+        <v>15</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>7</v>
@@ -3575,19 +3626,19 @@
       <c r="D118" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E118" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F118" s="4">
+      <c r="E118" s="3">
+        <v>2</v>
+      </c>
+      <c r="F118" s="3">
         <v>56.25</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B119" s="3">
-        <v>15.0</v>
+      <c r="B119" s="2">
+        <v>15</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>9</v>
@@ -3595,19 +3646,19 @@
       <c r="D119" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E119" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F119" s="4">
+      <c r="E119" s="3">
+        <v>2</v>
+      </c>
+      <c r="F119" s="3">
         <v>53.54</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B120" s="3">
-        <v>15.0</v>
+      <c r="B120" s="2">
+        <v>15</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>7</v>
@@ -3615,19 +3666,19 @@
       <c r="D120" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E120" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F120" s="4">
+      <c r="E120" s="3">
+        <v>2</v>
+      </c>
+      <c r="F120" s="3">
         <v>55.86</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B121" s="3">
-        <v>15.0</v>
+      <c r="B121" s="2">
+        <v>15</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>9</v>
@@ -3635,19 +3686,19 @@
       <c r="D121" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E121" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F121" s="4">
+      <c r="E121" s="3">
+        <v>1</v>
+      </c>
+      <c r="F121" s="3">
         <v>59.44</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B122" s="3">
-        <v>12.0</v>
+      <c r="B122" s="2">
+        <v>12</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>7</v>
@@ -3655,19 +3706,19 @@
       <c r="D122" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E122" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F122" s="4">
-        <v>66.74</v>
-      </c>
-    </row>
-    <row r="123">
+      <c r="E122" s="3">
+        <v>1</v>
+      </c>
+      <c r="F122" s="3">
+        <v>66.739999999999995</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B123" s="3">
-        <v>12.0</v>
+      <c r="B123" s="2">
+        <v>12</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>9</v>
@@ -3675,19 +3726,19 @@
       <c r="D123" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E123" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F123" s="4">
+      <c r="E123" s="3">
+        <v>1</v>
+      </c>
+      <c r="F123" s="3">
         <v>66.52</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B124" s="3">
-        <v>12.0</v>
+      <c r="B124" s="2">
+        <v>12</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>7</v>
@@ -3695,19 +3746,19 @@
       <c r="D124" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E124" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F124" s="4">
+      <c r="E124" s="3">
+        <v>3</v>
+      </c>
+      <c r="F124" s="3">
         <v>62.63</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B125" s="3">
-        <v>12.0</v>
+      <c r="B125" s="2">
+        <v>12</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>9</v>
@@ -3715,19 +3766,19 @@
       <c r="D125" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E125" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F125" s="4">
+      <c r="E125" s="3">
+        <v>1</v>
+      </c>
+      <c r="F125" s="3">
         <v>64.47</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B126" s="3">
-        <v>4.0</v>
+      <c r="B126" s="2">
+        <v>4</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>7</v>
@@ -3735,19 +3786,19 @@
       <c r="D126" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E126" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F126" s="4">
+      <c r="E126" s="3">
+        <v>2</v>
+      </c>
+      <c r="F126" s="3">
         <v>63.96</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B127" s="3">
-        <v>4.0</v>
+      <c r="B127" s="2">
+        <v>4</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>9</v>
@@ -3755,19 +3806,19 @@
       <c r="D127" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E127" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F127" s="4">
+      <c r="E127" s="3">
+        <v>3</v>
+      </c>
+      <c r="F127" s="3">
         <v>56.39</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B128" s="3">
-        <v>15.0</v>
+      <c r="B128" s="2">
+        <v>15</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>7</v>
@@ -3775,19 +3826,19 @@
       <c r="D128" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E128" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F128" s="4">
+      <c r="E128" s="3">
+        <v>2</v>
+      </c>
+      <c r="F128" s="3">
         <v>66.14</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B129" s="3">
-        <v>15.0</v>
+      <c r="B129" s="2">
+        <v>15</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>9</v>
@@ -3795,19 +3846,19 @@
       <c r="D129" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E129" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F129" s="4">
-        <v>74.65</v>
-      </c>
-    </row>
-    <row r="130">
+      <c r="E129" s="3">
+        <v>2</v>
+      </c>
+      <c r="F129" s="3">
+        <v>74.650000000000006</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B130" s="3">
-        <v>9.0</v>
+      <c r="B130" s="2">
+        <v>9</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>7</v>
@@ -3815,19 +3866,19 @@
       <c r="D130" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E130" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F130" s="4">
-        <v>73.99</v>
-      </c>
-    </row>
-    <row r="131">
+      <c r="E130" s="3">
+        <v>1</v>
+      </c>
+      <c r="F130" s="3">
+        <v>73.989999999999995</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B131" s="3">
-        <v>9.0</v>
+      <c r="B131" s="2">
+        <v>9</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>9</v>
@@ -3835,19 +3886,19 @@
       <c r="D131" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E131" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F131" s="4">
+      <c r="E131" s="3">
+        <v>2</v>
+      </c>
+      <c r="F131" s="3">
         <v>54.28</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B132" s="3">
-        <v>13.0</v>
+      <c r="B132" s="2">
+        <v>13</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>7</v>
@@ -3855,19 +3906,19 @@
       <c r="D132" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E132" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F132" s="4">
+      <c r="E132" s="3">
+        <v>2</v>
+      </c>
+      <c r="F132" s="3">
         <v>61.77</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B133" s="3">
-        <v>13.0</v>
+      <c r="B133" s="2">
+        <v>13</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>9</v>
@@ -3875,19 +3926,19 @@
       <c r="D133" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E133" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F133" s="4">
+      <c r="E133" s="3">
+        <v>2</v>
+      </c>
+      <c r="F133" s="3">
         <v>67.98</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B134" s="3">
-        <v>8.0</v>
+      <c r="B134" s="2">
+        <v>8</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>7</v>
@@ -3895,19 +3946,19 @@
       <c r="D134" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E134" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F134" s="4">
+      <c r="E134" s="3">
+        <v>2</v>
+      </c>
+      <c r="F134" s="3">
         <v>68.48</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B135" s="3">
-        <v>8.0</v>
+      <c r="B135" s="2">
+        <v>8</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>9</v>
@@ -3915,19 +3966,19 @@
       <c r="D135" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E135" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F135" s="4">
+      <c r="E135" s="3">
+        <v>1</v>
+      </c>
+      <c r="F135" s="3">
         <v>62.45</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B136" s="3">
-        <v>6.0</v>
+      <c r="B136" s="2">
+        <v>6</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>7</v>
@@ -3935,19 +3986,19 @@
       <c r="D136" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E136" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F136" s="4">
+      <c r="E136" s="3">
+        <v>1</v>
+      </c>
+      <c r="F136" s="3">
         <v>78.63</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B137" s="3">
-        <v>6.0</v>
+      <c r="B137" s="2">
+        <v>6</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>9</v>
@@ -3955,19 +4006,19 @@
       <c r="D137" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E137" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F137" s="4">
+      <c r="E137" s="3">
+        <v>1</v>
+      </c>
+      <c r="F137" s="3">
         <v>74.45</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B138" s="3">
-        <v>10.0</v>
+      <c r="B138" s="2">
+        <v>10</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>7</v>
@@ -3975,19 +4026,19 @@
       <c r="D138" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E138" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F138" s="4">
+      <c r="E138" s="3">
+        <v>1</v>
+      </c>
+      <c r="F138" s="3">
         <v>69.53</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B139" s="3">
-        <v>10.0</v>
+      <c r="B139" s="2">
+        <v>10</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>9</v>
@@ -3995,19 +4046,19 @@
       <c r="D139" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E139" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F139" s="4">
+      <c r="E139" s="3">
+        <v>1</v>
+      </c>
+      <c r="F139" s="3">
         <v>64.95</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B140" s="3">
-        <v>13.0</v>
+      <c r="B140" s="2">
+        <v>13</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>7</v>
@@ -4015,19 +4066,19 @@
       <c r="D140" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E140" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F140" s="4">
+      <c r="E140" s="3">
+        <v>2</v>
+      </c>
+      <c r="F140" s="3">
         <v>68.09</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B141" s="3">
-        <v>13.0</v>
+      <c r="B141" s="2">
+        <v>13</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>9</v>
@@ -4035,19 +4086,19 @@
       <c r="D141" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E141" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F141" s="4">
+      <c r="E141" s="3">
+        <v>2</v>
+      </c>
+      <c r="F141" s="3">
         <v>62.02</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B142" s="3">
-        <v>6.0</v>
+      <c r="B142" s="2">
+        <v>6</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>7</v>
@@ -4055,19 +4106,19 @@
       <c r="D142" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E142" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F142" s="4">
-        <v>66.35</v>
-      </c>
-    </row>
-    <row r="143">
+      <c r="E142" s="3">
+        <v>1</v>
+      </c>
+      <c r="F142" s="3">
+        <v>66.349999999999994</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B143" s="3">
-        <v>6.0</v>
+      <c r="B143" s="2">
+        <v>6</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>9</v>
@@ -4075,19 +4126,19 @@
       <c r="D143" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E143" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F143" s="4">
+      <c r="E143" s="3">
+        <v>3</v>
+      </c>
+      <c r="F143" s="3">
         <v>61.71</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B144" s="3">
-        <v>5.0</v>
+      <c r="B144" s="2">
+        <v>5</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>7</v>
@@ -4095,19 +4146,19 @@
       <c r="D144" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E144" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F144" s="4">
+      <c r="E144" s="3">
+        <v>3</v>
+      </c>
+      <c r="F144" s="3">
         <v>61.62</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B145" s="3">
-        <v>5.0</v>
+      <c r="B145" s="2">
+        <v>5</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>9</v>
@@ -4115,19 +4166,19 @@
       <c r="D145" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E145" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F145" s="4">
-        <v>70.68</v>
-      </c>
-    </row>
-    <row r="146">
+      <c r="E145" s="3">
+        <v>2</v>
+      </c>
+      <c r="F145" s="3">
+        <v>70.680000000000007</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B146" s="3">
-        <v>1.0</v>
+      <c r="B146" s="2">
+        <v>1</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>7</v>
@@ -4135,19 +4186,19 @@
       <c r="D146" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E146" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F146" s="4">
+      <c r="E146" s="3">
+        <v>3</v>
+      </c>
+      <c r="F146" s="3">
         <v>62.21</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B147" s="3">
-        <v>1.0</v>
+      <c r="B147" s="2">
+        <v>1</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>9</v>
@@ -4155,19 +4206,19 @@
       <c r="D147" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E147" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F147" s="4">
-        <v>68.26</v>
-      </c>
-    </row>
-    <row r="148">
+      <c r="E147" s="3">
+        <v>3</v>
+      </c>
+      <c r="F147" s="3">
+        <v>68.260000000000005</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B148" s="3">
-        <v>2.0</v>
+      <c r="B148" s="2">
+        <v>2</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>7</v>
@@ -4175,19 +4226,19 @@
       <c r="D148" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E148" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F148" s="4">
+      <c r="E148" s="3">
+        <v>2</v>
+      </c>
+      <c r="F148" s="3">
         <v>59.36</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B149" s="3">
-        <v>2.0</v>
+      <c r="B149" s="2">
+        <v>2</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>9</v>
@@ -4195,19 +4246,19 @@
       <c r="D149" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E149" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F149" s="4">
+      <c r="E149" s="3">
+        <v>2</v>
+      </c>
+      <c r="F149" s="3">
         <v>62.42</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B150" s="3">
-        <v>11.0</v>
+      <c r="B150" s="2">
+        <v>11</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>7</v>
@@ -4215,19 +4266,19 @@
       <c r="D150" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E150" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F150" s="4">
-        <v>67.68</v>
-      </c>
-    </row>
-    <row r="151">
+      <c r="E150" s="3">
+        <v>2</v>
+      </c>
+      <c r="F150" s="3">
+        <v>67.680000000000007</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B151" s="3">
-        <v>11.0</v>
+      <c r="B151" s="2">
+        <v>11</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>9</v>
@@ -4235,19 +4286,19 @@
       <c r="D151" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E151" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F151" s="4">
-        <v>65.85</v>
-      </c>
-    </row>
-    <row r="152">
+      <c r="E151" s="3">
+        <v>3</v>
+      </c>
+      <c r="F151" s="3">
+        <v>65.849999999999994</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B152" s="3">
-        <v>6.0</v>
+      <c r="B152" s="2">
+        <v>6</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>7</v>
@@ -4255,19 +4306,19 @@
       <c r="D152" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E152" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F152" s="4">
+      <c r="E152" s="3">
+        <v>3</v>
+      </c>
+      <c r="F152" s="3">
         <v>58.68</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B153" s="3">
-        <v>6.0</v>
+      <c r="B153" s="2">
+        <v>6</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>9</v>
@@ -4275,19 +4326,19 @@
       <c r="D153" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E153" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F153" s="4">
+      <c r="E153" s="3">
+        <v>3</v>
+      </c>
+      <c r="F153" s="3">
         <v>50.89</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B154" s="3">
-        <v>7.0</v>
+      <c r="B154" s="2">
+        <v>7</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>7</v>
@@ -4295,19 +4346,19 @@
       <c r="D154" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E154" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F154" s="4">
-        <v>64.9</v>
-      </c>
-    </row>
-    <row r="155">
+      <c r="E154" s="3">
+        <v>3</v>
+      </c>
+      <c r="F154" s="3">
+        <v>64.900000000000006</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B155" s="3">
-        <v>7.0</v>
+      <c r="B155" s="2">
+        <v>7</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>9</v>
@@ -4315,19 +4366,19 @@
       <c r="D155" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E155" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F155" s="4">
+      <c r="E155" s="3">
+        <v>1</v>
+      </c>
+      <c r="F155" s="3">
         <v>62.91</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B156" s="3">
-        <v>11.0</v>
+      <c r="B156" s="2">
+        <v>11</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>7</v>
@@ -4335,19 +4386,19 @@
       <c r="D156" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E156" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F156" s="4">
+      <c r="E156" s="3">
+        <v>2</v>
+      </c>
+      <c r="F156" s="3">
         <v>57.41</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B157" s="3">
-        <v>11.0</v>
+      <c r="B157" s="2">
+        <v>11</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>9</v>
@@ -4355,19 +4406,19 @@
       <c r="D157" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E157" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F157" s="4">
+      <c r="E157" s="3">
+        <v>2</v>
+      </c>
+      <c r="F157" s="3">
         <v>61.04</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B158" s="3">
-        <v>15.0</v>
+      <c r="B158" s="2">
+        <v>15</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>7</v>
@@ -4375,19 +4426,19 @@
       <c r="D158" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E158" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F158" s="4">
+      <c r="E158" s="3">
+        <v>2</v>
+      </c>
+      <c r="F158" s="3">
         <v>58.63</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B159" s="3">
-        <v>15.0</v>
+      <c r="B159" s="2">
+        <v>15</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>9</v>
@@ -4395,19 +4446,19 @@
       <c r="D159" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E159" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F159" s="4">
+      <c r="E159" s="3">
+        <v>2</v>
+      </c>
+      <c r="F159" s="3">
         <v>51.45</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B160" s="3">
-        <v>10.0</v>
+      <c r="B160" s="2">
+        <v>10</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>7</v>
@@ -4415,19 +4466,19 @@
       <c r="D160" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E160" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F160" s="4">
+      <c r="E160" s="3">
+        <v>1</v>
+      </c>
+      <c r="F160" s="3">
         <v>65.05</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B161" s="3">
-        <v>10.0</v>
+      <c r="B161" s="2">
+        <v>10</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>9</v>
@@ -4435,19 +4486,19 @@
       <c r="D161" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E161" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F161" s="4">
+      <c r="E161" s="3">
+        <v>1</v>
+      </c>
+      <c r="F161" s="3">
         <v>52.97</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B162" s="3">
-        <v>1.0</v>
+      <c r="B162" s="2">
+        <v>1</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>7</v>
@@ -4455,19 +4506,19 @@
       <c r="D162" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E162" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F162" s="4">
+      <c r="E162" s="3">
+        <v>2</v>
+      </c>
+      <c r="F162" s="3">
         <v>60.79</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B163" s="3">
-        <v>1.0</v>
+      <c r="B163" s="2">
+        <v>1</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>9</v>
@@ -4475,19 +4526,19 @@
       <c r="D163" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E163" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F163" s="4">
+      <c r="E163" s="3">
+        <v>1</v>
+      </c>
+      <c r="F163" s="3">
         <v>60.92</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B164" s="3">
-        <v>3.0</v>
+      <c r="B164" s="2">
+        <v>3</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>7</v>
@@ -4495,19 +4546,19 @@
       <c r="D164" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E164" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F164" s="4">
+      <c r="E164" s="3">
+        <v>1</v>
+      </c>
+      <c r="F164" s="3">
         <v>57.62</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B165" s="3">
-        <v>3.0</v>
+      <c r="B165" s="2">
+        <v>3</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>9</v>
@@ -4515,19 +4566,19 @@
       <c r="D165" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E165" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F165" s="4">
+      <c r="E165" s="3">
+        <v>2</v>
+      </c>
+      <c r="F165" s="3">
         <v>56.78</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B166" s="3">
-        <v>4.0</v>
+      <c r="B166" s="2">
+        <v>4</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>7</v>
@@ -4535,19 +4586,19 @@
       <c r="D166" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E166" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F166" s="4">
+      <c r="E166" s="3">
+        <v>2</v>
+      </c>
+      <c r="F166" s="3">
         <v>53.89</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B167" s="3">
-        <v>4.0</v>
+      <c r="B167" s="2">
+        <v>4</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>9</v>
@@ -4555,19 +4606,19 @@
       <c r="D167" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E167" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F167" s="4">
+      <c r="E167" s="3">
+        <v>1</v>
+      </c>
+      <c r="F167" s="3">
         <v>62.45</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B168" s="3">
-        <v>7.0</v>
+      <c r="B168" s="2">
+        <v>7</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>7</v>
@@ -4575,19 +4626,19 @@
       <c r="D168" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E168" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F168" s="4">
+      <c r="E168" s="3">
+        <v>2</v>
+      </c>
+      <c r="F168" s="3">
         <v>47.76</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B169" s="3">
-        <v>7.0</v>
+      <c r="B169" s="2">
+        <v>7</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>9</v>
@@ -4595,19 +4646,19 @@
       <c r="D169" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E169" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F169" s="4">
+      <c r="E169" s="3">
+        <v>1</v>
+      </c>
+      <c r="F169" s="3">
         <v>40.92</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B170" s="3">
-        <v>14.0</v>
+      <c r="B170" s="2">
+        <v>14</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>7</v>
@@ -4615,19 +4666,19 @@
       <c r="D170" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E170" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F170" s="4">
+      <c r="E170" s="3">
+        <v>1</v>
+      </c>
+      <c r="F170" s="3">
         <v>58.88</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B171" s="3">
-        <v>14.0</v>
+      <c r="B171" s="2">
+        <v>14</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>9</v>
@@ -4635,19 +4686,19 @@
       <c r="D171" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E171" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F171" s="4">
+      <c r="E171" s="3">
+        <v>2</v>
+      </c>
+      <c r="F171" s="3">
         <v>60.4</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B172" s="3">
-        <v>11.0</v>
+      <c r="B172" s="2">
+        <v>11</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>7</v>
@@ -4655,19 +4706,19 @@
       <c r="D172" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E172" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F172" s="4">
+      <c r="E172" s="3">
+        <v>1</v>
+      </c>
+      <c r="F172" s="3">
         <v>61.82</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B173" s="3">
-        <v>11.0</v>
+      <c r="B173" s="2">
+        <v>11</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>9</v>
@@ -4675,19 +4726,19 @@
       <c r="D173" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E173" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F173" s="4">
+      <c r="E173" s="3">
+        <v>2</v>
+      </c>
+      <c r="F173" s="3">
         <v>60.47</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B174" s="3">
-        <v>4.0</v>
+      <c r="B174" s="2">
+        <v>4</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>7</v>
@@ -4695,19 +4746,19 @@
       <c r="D174" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E174" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F174" s="4">
+      <c r="E174" s="3">
+        <v>1</v>
+      </c>
+      <c r="F174" s="3">
         <v>54.57</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B175" s="3">
-        <v>4.0</v>
+      <c r="B175" s="2">
+        <v>4</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>9</v>
@@ -4715,19 +4766,19 @@
       <c r="D175" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E175" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F175" s="4">
+      <c r="E175" s="3">
+        <v>1</v>
+      </c>
+      <c r="F175" s="3">
         <v>40.32</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B176" s="3">
-        <v>1.0</v>
+      <c r="B176" s="2">
+        <v>1</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>7</v>
@@ -4735,19 +4786,19 @@
       <c r="D176" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E176" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F176" s="4">
+      <c r="E176" s="3">
+        <v>1</v>
+      </c>
+      <c r="F176" s="3">
         <v>52.76</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B177" s="3">
-        <v>1.0</v>
+      <c r="B177" s="2">
+        <v>1</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>9</v>
@@ -4755,19 +4806,19 @@
       <c r="D177" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E177" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F177" s="4">
+      <c r="E177" s="3">
+        <v>2</v>
+      </c>
+      <c r="F177" s="3">
         <v>57.58</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B178" s="3">
-        <v>10.0</v>
+      <c r="B178" s="2">
+        <v>10</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>7</v>
@@ -4775,19 +4826,19 @@
       <c r="D178" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E178" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F178" s="4">
+      <c r="E178" s="3">
+        <v>1</v>
+      </c>
+      <c r="F178" s="3">
         <v>64.13</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B179" s="3">
-        <v>10.0</v>
+      <c r="B179" s="2">
+        <v>10</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>9</v>
@@ -4795,19 +4846,19 @@
       <c r="D179" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E179" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F179" s="4">
+      <c r="E179" s="3">
+        <v>2</v>
+      </c>
+      <c r="F179" s="3">
         <v>56.99</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B180" s="3">
-        <v>3.0</v>
+      <c r="B180" s="2">
+        <v>3</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>9</v>
@@ -4815,19 +4866,19 @@
       <c r="D180" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E180" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F180" s="4">
+      <c r="E180" s="3">
+        <v>2</v>
+      </c>
+      <c r="F180" s="3">
         <v>61.13</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B181" s="3">
-        <v>3.0</v>
+      <c r="B181" s="2">
+        <v>3</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>7</v>
@@ -4835,19 +4886,19 @@
       <c r="D181" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E181" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F181" s="4">
+      <c r="E181" s="3">
+        <v>2</v>
+      </c>
+      <c r="F181" s="3">
         <v>57.1</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B182" s="3">
-        <v>10.0</v>
+      <c r="B182" s="2">
+        <v>10</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>7</v>
@@ -4855,19 +4906,19 @@
       <c r="D182" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E182" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F182" s="4">
-        <v>70.74</v>
-      </c>
-    </row>
-    <row r="183">
+      <c r="E182" s="3">
+        <v>1</v>
+      </c>
+      <c r="F182" s="3">
+        <v>70.739999999999995</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B183" s="3">
-        <v>10.0</v>
+      <c r="B183" s="2">
+        <v>10</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>9</v>
@@ -4875,19 +4926,19 @@
       <c r="D183" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E183" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F183" s="4">
+      <c r="E183" s="3">
+        <v>1</v>
+      </c>
+      <c r="F183" s="3">
         <v>51.14</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B184" s="3">
-        <v>13.0</v>
+      <c r="B184" s="2">
+        <v>13</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>7</v>
@@ -4895,19 +4946,19 @@
       <c r="D184" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E184" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F184" s="4">
+      <c r="E184" s="3">
+        <v>2</v>
+      </c>
+      <c r="F184" s="3">
         <v>53.79</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B185" s="3">
-        <v>13.0</v>
+      <c r="B185" s="2">
+        <v>13</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>9</v>
@@ -4915,19 +4966,19 @@
       <c r="D185" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E185" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F185" s="4">
+      <c r="E185" s="3">
+        <v>2</v>
+      </c>
+      <c r="F185" s="3">
         <v>67.69</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B186" s="3">
-        <v>4.0</v>
+      <c r="B186" s="2">
+        <v>4</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>7</v>
@@ -4935,19 +4986,19 @@
       <c r="D186" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E186" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F186" s="4">
+      <c r="E186" s="3">
+        <v>2</v>
+      </c>
+      <c r="F186" s="3">
         <v>65.2</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B187" s="3">
-        <v>4.0</v>
+      <c r="B187" s="2">
+        <v>4</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>9</v>
@@ -4955,19 +5006,19 @@
       <c r="D187" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E187" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F187" s="4">
+      <c r="E187" s="3">
+        <v>2</v>
+      </c>
+      <c r="F187" s="3">
         <v>64.39</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B188" s="3">
-        <v>6.0</v>
+      <c r="B188" s="2">
+        <v>6</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>7</v>
@@ -4975,19 +5026,19 @@
       <c r="D188" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E188" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F188" s="4">
-        <v>70.71</v>
-      </c>
-    </row>
-    <row r="189">
+      <c r="E188" s="3">
+        <v>2</v>
+      </c>
+      <c r="F188" s="3">
+        <v>70.709999999999994</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B189" s="3">
-        <v>6.0</v>
+      <c r="B189" s="2">
+        <v>6</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>9</v>
@@ -4995,19 +5046,19 @@
       <c r="D189" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E189" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F189" s="4">
+      <c r="E189" s="3">
+        <v>1</v>
+      </c>
+      <c r="F189" s="3">
         <v>47.67</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B190" s="3">
-        <v>5.0</v>
+      <c r="B190" s="2">
+        <v>5</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>7</v>
@@ -5015,19 +5066,19 @@
       <c r="D190" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E190" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F190" s="4">
+      <c r="E190" s="3">
+        <v>3</v>
+      </c>
+      <c r="F190" s="3">
         <v>61.9</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B191" s="3">
-        <v>5.0</v>
+      <c r="B191" s="2">
+        <v>5</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>9</v>
@@ -5035,19 +5086,19 @@
       <c r="D191" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E191" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F191" s="4">
+      <c r="E191" s="3">
+        <v>2</v>
+      </c>
+      <c r="F191" s="3">
         <v>62.89</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B192" s="3">
-        <v>15.0</v>
+      <c r="B192" s="2">
+        <v>15</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>7</v>
@@ -5055,19 +5106,19 @@
       <c r="D192" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E192" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F192" s="4">
+      <c r="E192" s="3">
+        <v>2</v>
+      </c>
+      <c r="F192" s="3">
         <v>59.17</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B193" s="3">
-        <v>15.0</v>
+      <c r="B193" s="2">
+        <v>15</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>9</v>
@@ -5075,19 +5126,19 @@
       <c r="D193" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E193" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F193" s="4">
+      <c r="E193" s="3">
+        <v>2</v>
+      </c>
+      <c r="F193" s="3">
         <v>61.3</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B194" s="3">
-        <v>2.0</v>
+      <c r="B194" s="2">
+        <v>2</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>7</v>
@@ -5095,19 +5146,19 @@
       <c r="D194" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E194" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F194" s="4">
+      <c r="E194" s="3">
+        <v>2</v>
+      </c>
+      <c r="F194" s="3">
         <v>59.61</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B195" s="3">
-        <v>2.0</v>
+      <c r="B195" s="2">
+        <v>2</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>9</v>
@@ -5115,19 +5166,19 @@
       <c r="D195" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E195" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F195" s="4">
+      <c r="E195" s="3">
+        <v>3</v>
+      </c>
+      <c r="F195" s="3">
         <v>62.5</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B196" s="3">
-        <v>11.0</v>
+      <c r="B196" s="2">
+        <v>11</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>7</v>
@@ -5135,19 +5186,19 @@
       <c r="D196" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E196" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F196" s="4">
+      <c r="E196" s="3">
+        <v>3</v>
+      </c>
+      <c r="F196" s="3">
         <v>65.64</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B197" s="3">
-        <v>11.0</v>
+      <c r="B197" s="2">
+        <v>11</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>9</v>
@@ -5155,19 +5206,19 @@
       <c r="D197" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E197" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F197" s="4">
+      <c r="E197" s="3">
+        <v>2</v>
+      </c>
+      <c r="F197" s="3">
         <v>66.12</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B198" s="3">
-        <v>9.0</v>
+      <c r="B198" s="2">
+        <v>9</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>7</v>
@@ -5175,19 +5226,19 @@
       <c r="D198" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E198" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F198" s="4">
-        <v>68.43</v>
-      </c>
-    </row>
-    <row r="199">
+      <c r="E198" s="3">
+        <v>2</v>
+      </c>
+      <c r="F198" s="3">
+        <v>68.430000000000007</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B199" s="3">
-        <v>9.0</v>
+      <c r="B199" s="2">
+        <v>9</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>9</v>
@@ -5195,19 +5246,19 @@
       <c r="D199" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E199" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F199" s="4">
+      <c r="E199" s="3">
+        <v>2</v>
+      </c>
+      <c r="F199" s="3">
         <v>58.95</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B200" s="3">
-        <v>7.0</v>
+      <c r="B200" s="2">
+        <v>7</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>7</v>
@@ -5215,19 +5266,19 @@
       <c r="D200" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E200" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F200" s="4">
-        <v>64.4</v>
-      </c>
-    </row>
-    <row r="201">
+      <c r="E200" s="3">
+        <v>1</v>
+      </c>
+      <c r="F200" s="3">
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B201" s="3">
-        <v>7.0</v>
+      <c r="B201" s="2">
+        <v>7</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>9</v>
@@ -5235,19 +5286,19 @@
       <c r="D201" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E201" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F201" s="4">
+      <c r="E201" s="3">
+        <v>2</v>
+      </c>
+      <c r="F201" s="3">
         <v>58.62</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B202" s="3">
-        <v>13.0</v>
+      <c r="B202" s="2">
+        <v>13</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>7</v>
@@ -5255,19 +5306,19 @@
       <c r="D202" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E202" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F202" s="4">
+      <c r="E202" s="3">
+        <v>2</v>
+      </c>
+      <c r="F202" s="3">
         <v>61.56</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B203" s="3">
-        <v>13.0</v>
+      <c r="B203" s="2">
+        <v>13</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>9</v>
@@ -5275,19 +5326,19 @@
       <c r="D203" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E203" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F203" s="4">
+      <c r="E203" s="3">
+        <v>2</v>
+      </c>
+      <c r="F203" s="3">
         <v>61.47</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B204" s="3">
-        <v>12.0</v>
+      <c r="B204" s="2">
+        <v>12</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>7</v>
@@ -5295,19 +5346,19 @@
       <c r="D204" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E204" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F204" s="4">
+      <c r="E204" s="3">
+        <v>1</v>
+      </c>
+      <c r="F204" s="3">
         <v>57.11</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B205" s="3">
-        <v>12.0</v>
+      <c r="B205" s="2">
+        <v>12</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>9</v>
@@ -5315,19 +5366,19 @@
       <c r="D205" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E205" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F205" s="4">
+      <c r="E205" s="3">
+        <v>1</v>
+      </c>
+      <c r="F205" s="3">
         <v>59.25</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B206" s="3">
-        <v>5.0</v>
+      <c r="B206" s="2">
+        <v>5</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>7</v>
@@ -5335,19 +5386,19 @@
       <c r="D206" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E206" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F206" s="4">
+      <c r="E206" s="3">
+        <v>1</v>
+      </c>
+      <c r="F206" s="3">
         <v>57.59</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B207" s="3">
-        <v>5.0</v>
+      <c r="B207" s="2">
+        <v>5</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>9</v>
@@ -5355,19 +5406,19 @@
       <c r="D207" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E207" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F207" s="4">
+      <c r="E207" s="3">
+        <v>2</v>
+      </c>
+      <c r="F207" s="3">
         <v>53.59</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B208" s="3">
-        <v>9.0</v>
+      <c r="B208" s="2">
+        <v>9</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>7</v>
@@ -5375,19 +5426,19 @@
       <c r="D208" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E208" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F208" s="4">
+      <c r="E208" s="3">
+        <v>1</v>
+      </c>
+      <c r="F208" s="3">
         <v>64.75</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B209" s="3">
-        <v>9.0</v>
+      <c r="B209" s="2">
+        <v>9</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>9</v>
@@ -5395,19 +5446,19 @@
       <c r="D209" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E209" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F209" s="4">
+      <c r="E209" s="3">
+        <v>2</v>
+      </c>
+      <c r="F209" s="3">
         <v>53.39</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B210" s="3">
-        <v>1.0</v>
+      <c r="B210" s="2">
+        <v>1</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>7</v>
@@ -5415,19 +5466,19 @@
       <c r="D210" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E210" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F210" s="4">
+      <c r="E210" s="3">
+        <v>1</v>
+      </c>
+      <c r="F210" s="3">
         <v>64.19</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B211" s="3">
-        <v>1.0</v>
+      <c r="B211" s="2">
+        <v>1</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>9</v>
@@ -5435,19 +5486,19 @@
       <c r="D211" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E211" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F211" s="4">
+      <c r="E211" s="3">
+        <v>2</v>
+      </c>
+      <c r="F211" s="3">
         <v>63.97</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B212" s="3">
-        <v>7.0</v>
+      <c r="B212" s="2">
+        <v>7</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>7</v>
@@ -5455,19 +5506,19 @@
       <c r="D212" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E212" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F212" s="4">
+      <c r="E212" s="3">
+        <v>1</v>
+      </c>
+      <c r="F212" s="3">
         <v>60.65</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B213" s="3">
-        <v>7.0</v>
+      <c r="B213" s="2">
+        <v>7</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>9</v>
@@ -5475,19 +5526,19 @@
       <c r="D213" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E213" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F213" s="4">
+      <c r="E213" s="3">
+        <v>2</v>
+      </c>
+      <c r="F213" s="3">
         <v>58.68</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B214" s="3">
-        <v>8.0</v>
+      <c r="B214" s="2">
+        <v>8</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>7</v>
@@ -5495,19 +5546,19 @@
       <c r="D214" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E214" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F214" s="4">
+      <c r="E214" s="3">
+        <v>2</v>
+      </c>
+      <c r="F214" s="3">
         <v>58.61</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B215" s="3">
-        <v>8.0</v>
+      <c r="B215" s="2">
+        <v>8</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>9</v>
@@ -5515,19 +5566,19 @@
       <c r="D215" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E215" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F215" s="4">
+      <c r="E215" s="3">
+        <v>2</v>
+      </c>
+      <c r="F215" s="3">
         <v>53.31</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B216" s="3">
-        <v>2.0</v>
+      <c r="B216" s="2">
+        <v>2</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>7</v>
@@ -5535,19 +5586,19 @@
       <c r="D216" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E216" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F216" s="4">
+      <c r="E216" s="3">
+        <v>2</v>
+      </c>
+      <c r="F216" s="3">
         <v>65.28</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B217" s="3">
-        <v>2.0</v>
+      <c r="B217" s="2">
+        <v>2</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>9</v>
@@ -5555,19 +5606,19 @@
       <c r="D217" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E217" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F217" s="4">
+      <c r="E217" s="3">
+        <v>1</v>
+      </c>
+      <c r="F217" s="3">
         <v>60.51</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B218" s="3">
-        <v>14.0</v>
+      <c r="B218" s="2">
+        <v>14</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>7</v>
@@ -5575,19 +5626,19 @@
       <c r="D218" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E218" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F218" s="4">
+      <c r="E218" s="3">
+        <v>1</v>
+      </c>
+      <c r="F218" s="3">
         <v>62.15</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B219" s="3">
-        <v>14.0</v>
+      <c r="B219" s="2">
+        <v>14</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>9</v>
@@ -5595,19 +5646,19 @@
       <c r="D219" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E219" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F219" s="4">
+      <c r="E219" s="3">
+        <v>2</v>
+      </c>
+      <c r="F219" s="3">
         <v>57.66</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B220" s="3">
-        <v>9.0</v>
+      <c r="B220" s="2">
+        <v>9</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>7</v>
@@ -5615,19 +5666,19 @@
       <c r="D220" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E220" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F220" s="4">
-        <v>70.9</v>
-      </c>
-    </row>
-    <row r="221">
+      <c r="E220" s="3">
+        <v>1</v>
+      </c>
+      <c r="F220" s="3">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B221" s="3">
-        <v>9.0</v>
+      <c r="B221" s="2">
+        <v>9</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>9</v>
@@ -5635,19 +5686,19 @@
       <c r="D221" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E221" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F221" s="4">
+      <c r="E221" s="3">
+        <v>1</v>
+      </c>
+      <c r="F221" s="3">
         <v>62.73</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B222" s="3">
-        <v>8.0</v>
+      <c r="B222" s="2">
+        <v>8</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>7</v>
@@ -5655,19 +5706,19 @@
       <c r="D222" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E222" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F222" s="4">
+      <c r="E222" s="3">
+        <v>1</v>
+      </c>
+      <c r="F222" s="3">
         <v>62.39</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B223" s="3">
-        <v>8.0</v>
+      <c r="B223" s="2">
+        <v>8</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>9</v>
@@ -5675,19 +5726,19 @@
       <c r="D223" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E223" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F223" s="4">
+      <c r="E223" s="3">
+        <v>1</v>
+      </c>
+      <c r="F223" s="3">
         <v>69.67</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B224" s="3">
-        <v>12.0</v>
+      <c r="B224" s="2">
+        <v>12</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>7</v>
@@ -5695,19 +5746,19 @@
       <c r="D224" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E224" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F224" s="4">
+      <c r="E224" s="3">
+        <v>2</v>
+      </c>
+      <c r="F224" s="3">
         <v>59.34</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B225" s="3">
-        <v>12.0</v>
+      <c r="B225" s="2">
+        <v>12</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>9</v>
@@ -5715,19 +5766,19 @@
       <c r="D225" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E225" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F225" s="4">
-        <v>68.0</v>
-      </c>
-    </row>
-    <row r="226">
+      <c r="E225" s="3">
+        <v>2</v>
+      </c>
+      <c r="F225" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B226" s="3">
-        <v>14.0</v>
+      <c r="B226" s="2">
+        <v>14</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>7</v>
@@ -5735,19 +5786,19 @@
       <c r="D226" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E226" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F226" s="4">
+      <c r="E226" s="3">
+        <v>2</v>
+      </c>
+      <c r="F226" s="3">
         <v>68.06</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B227" s="3">
-        <v>14.0</v>
+      <c r="B227" s="2">
+        <v>14</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>9</v>
@@ -5755,19 +5806,19 @@
       <c r="D227" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E227" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F227" s="4">
-        <v>76.21</v>
-      </c>
-    </row>
-    <row r="228">
+      <c r="E227" s="3">
+        <v>1</v>
+      </c>
+      <c r="F227" s="3">
+        <v>76.209999999999994</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B228" s="3">
-        <v>4.0</v>
+      <c r="B228" s="2">
+        <v>4</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>7</v>
@@ -5775,19 +5826,19 @@
       <c r="D228" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E228" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F228" s="4">
+      <c r="E228" s="3">
+        <v>1</v>
+      </c>
+      <c r="F228" s="3">
         <v>58.58</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B229" s="3">
-        <v>4.0</v>
+      <c r="B229" s="2">
+        <v>4</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>9</v>
@@ -5795,19 +5846,19 @@
       <c r="D229" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E229" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F229" s="4">
+      <c r="E229" s="3">
+        <v>2</v>
+      </c>
+      <c r="F229" s="3">
         <v>54.56</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B230" s="3">
-        <v>3.0</v>
+      <c r="B230" s="2">
+        <v>3</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>7</v>
@@ -5815,19 +5866,19 @@
       <c r="D230" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E230" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F230" s="4">
+      <c r="E230" s="3">
+        <v>1</v>
+      </c>
+      <c r="F230" s="3">
         <v>31.34</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B231" s="3">
-        <v>3.0</v>
+      <c r="B231" s="2">
+        <v>3</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>9</v>
@@ -5835,19 +5886,19 @@
       <c r="D231" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E231" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F231" s="4">
+      <c r="E231" s="3">
+        <v>1</v>
+      </c>
+      <c r="F231" s="3">
         <v>55.82</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B232" s="3">
-        <v>16.0</v>
+      <c r="B232" s="2">
+        <v>16</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>7</v>
@@ -5855,19 +5906,19 @@
       <c r="D232" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E232" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F232" s="4">
+      <c r="E232" s="3">
+        <v>1</v>
+      </c>
+      <c r="F232" s="3">
         <v>41.02</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A233" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B233" s="3">
-        <v>16.0</v>
+      <c r="B233" s="2">
+        <v>16</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>9</v>
@@ -5875,19 +5926,19 @@
       <c r="D233" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E233" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F233" s="4">
+      <c r="E233" s="3">
+        <v>1</v>
+      </c>
+      <c r="F233" s="3">
         <v>59.82</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A234" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B234" s="3">
-        <v>6.0</v>
+      <c r="B234" s="2">
+        <v>6</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>7</v>
@@ -5895,19 +5946,19 @@
       <c r="D234" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E234" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F234" s="4">
+      <c r="E234" s="3">
+        <v>2</v>
+      </c>
+      <c r="F234" s="3">
         <v>54.89</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B235" s="3">
-        <v>6.0</v>
+      <c r="B235" s="2">
+        <v>6</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>9</v>
@@ -5915,19 +5966,19 @@
       <c r="D235" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E235" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F235" s="4">
+      <c r="E235" s="3">
+        <v>2</v>
+      </c>
+      <c r="F235" s="3">
         <v>57.23</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B236" s="3">
-        <v>11.0</v>
+      <c r="B236" s="2">
+        <v>11</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>7</v>
@@ -5935,19 +5986,19 @@
       <c r="D236" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E236" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F236" s="4">
-        <v>68.71</v>
-      </c>
-    </row>
-    <row r="237">
+      <c r="E236" s="3">
+        <v>2</v>
+      </c>
+      <c r="F236" s="3">
+        <v>68.709999999999994</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B237" s="3">
-        <v>11.0</v>
+      <c r="B237" s="2">
+        <v>11</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>9</v>
@@ -5955,19 +6006,19 @@
       <c r="D237" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E237" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F237" s="4">
+      <c r="E237" s="3">
+        <v>2</v>
+      </c>
+      <c r="F237" s="3">
         <v>58.3</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B238" s="3">
-        <v>3.0</v>
+      <c r="B238" s="2">
+        <v>3</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>9</v>
@@ -5975,19 +6026,19 @@
       <c r="D238" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E238" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F238" s="4">
-        <v>67.82</v>
-      </c>
-    </row>
-    <row r="239">
+      <c r="E238" s="3">
+        <v>2</v>
+      </c>
+      <c r="F238" s="3">
+        <v>67.819999999999993</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B239" s="3">
-        <v>3.0</v>
+      <c r="B239" s="2">
+        <v>3</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>7</v>
@@ -5995,19 +6046,19 @@
       <c r="D239" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E239" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F239" s="4">
-        <v>69.51</v>
-      </c>
-    </row>
-    <row r="240">
+      <c r="E239" s="3">
+        <v>2</v>
+      </c>
+      <c r="F239" s="3">
+        <v>69.510000000000005</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B240" s="3">
-        <v>13.0</v>
+      <c r="B240" s="2">
+        <v>13</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>7</v>
@@ -6015,19 +6066,19 @@
       <c r="D240" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E240" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F240" s="4">
+      <c r="E240" s="3">
+        <v>2</v>
+      </c>
+      <c r="F240" s="3">
         <v>58.68</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A241" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B241" s="3">
-        <v>13.0</v>
+      <c r="B241" s="2">
+        <v>13</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>9</v>
@@ -6035,19 +6086,19 @@
       <c r="D241" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E241" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F241" s="4">
+      <c r="E241" s="3">
+        <v>3</v>
+      </c>
+      <c r="F241" s="3">
         <v>55.07</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B242" s="3">
-        <v>1.0</v>
+      <c r="B242" s="2">
+        <v>1</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>7</v>
@@ -6055,19 +6106,19 @@
       <c r="D242" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E242" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F242" s="4">
+      <c r="E242" s="3">
+        <v>2</v>
+      </c>
+      <c r="F242" s="3">
         <v>59.96</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B243" s="3">
-        <v>1.0</v>
+      <c r="B243" s="2">
+        <v>1</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>9</v>
@@ -6075,19 +6126,19 @@
       <c r="D243" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E243" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F243" s="4">
+      <c r="E243" s="3">
+        <v>2</v>
+      </c>
+      <c r="F243" s="3">
         <v>58.23</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B244" s="3">
-        <v>8.0</v>
+      <c r="B244" s="2">
+        <v>8</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>7</v>
@@ -6095,19 +6146,19 @@
       <c r="D244" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E244" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F244" s="4">
+      <c r="E244" s="3">
+        <v>1</v>
+      </c>
+      <c r="F244" s="3">
         <v>35.97</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B245" s="3">
-        <v>8.0</v>
+      <c r="B245" s="2">
+        <v>8</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>9</v>
@@ -6115,19 +6166,19 @@
       <c r="D245" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E245" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F245" s="4">
+      <c r="E245" s="3">
+        <v>1</v>
+      </c>
+      <c r="F245" s="3">
         <v>50.41</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B246" s="3">
-        <v>10.0</v>
+      <c r="B246" s="2">
+        <v>10</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>7</v>
@@ -6135,19 +6186,19 @@
       <c r="D246" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E246" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F246" s="4">
+      <c r="E246" s="3">
+        <v>3</v>
+      </c>
+      <c r="F246" s="3">
         <v>58.65</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B247" s="3">
-        <v>10.0</v>
+      <c r="B247" s="2">
+        <v>10</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>9</v>
@@ -6155,19 +6206,19 @@
       <c r="D247" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E247" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F247" s="4">
+      <c r="E247" s="3">
+        <v>1</v>
+      </c>
+      <c r="F247" s="3">
         <v>56.57</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B248" s="3">
-        <v>2.0</v>
+      <c r="B248" s="2">
+        <v>2</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>7</v>
@@ -6175,19 +6226,19 @@
       <c r="D248" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E248" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F248" s="4">
-        <v>33.09</v>
-      </c>
-    </row>
-    <row r="249">
+      <c r="E248" s="3">
+        <v>1</v>
+      </c>
+      <c r="F248" s="3">
+        <v>33.090000000000003</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B249" s="3">
-        <v>2.0</v>
+      <c r="B249" s="2">
+        <v>2</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>9</v>
@@ -6195,19 +6246,19 @@
       <c r="D249" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E249" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F249" s="4">
-        <v>33.09</v>
-      </c>
-    </row>
-    <row r="250">
+      <c r="E249" s="3">
+        <v>1</v>
+      </c>
+      <c r="F249" s="3">
+        <v>33.090000000000003</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B250" s="3">
-        <v>12.0</v>
+      <c r="B250" s="2">
+        <v>12</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>7</v>
@@ -6215,19 +6266,19 @@
       <c r="D250" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E250" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F250" s="4">
+      <c r="E250" s="3">
+        <v>2</v>
+      </c>
+      <c r="F250" s="3">
         <v>71.45</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A251" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B251" s="3">
-        <v>8.0</v>
+      <c r="B251" s="2">
+        <v>8</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>7</v>
@@ -6235,19 +6286,19 @@
       <c r="D251" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E251" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F251" s="4">
+      <c r="E251" s="3">
+        <v>1</v>
+      </c>
+      <c r="F251" s="3">
         <v>16.57</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B252" s="3">
-        <v>8.0</v>
+      <c r="B252" s="2">
+        <v>8</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>9</v>
@@ -6255,19 +6306,19 @@
       <c r="D252" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E252" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F252" s="4">
-        <v>75.96</v>
-      </c>
-    </row>
-    <row r="253">
+      <c r="E252" s="3">
+        <v>1</v>
+      </c>
+      <c r="F252" s="3">
+        <v>75.959999999999994</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A253" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B253" s="3">
-        <v>11.0</v>
+      <c r="B253" s="2">
+        <v>11</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>7</v>
@@ -6275,19 +6326,19 @@
       <c r="D253" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E253" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F253" s="4">
+      <c r="E253" s="3">
+        <v>1</v>
+      </c>
+      <c r="F253" s="3">
         <v>54.17</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B254" s="3">
-        <v>11.0</v>
+      <c r="B254" s="2">
+        <v>11</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>9</v>
@@ -6295,19 +6346,19 @@
       <c r="D254" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E254" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F254" s="4">
+      <c r="E254" s="3">
+        <v>2</v>
+      </c>
+      <c r="F254" s="3">
         <v>59.36</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B255" s="3">
-        <v>4.0</v>
+      <c r="B255" s="2">
+        <v>4</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>7</v>
@@ -6315,19 +6366,19 @@
       <c r="D255" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E255" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F255" s="4">
-        <v>69.54</v>
-      </c>
-    </row>
-    <row r="256">
+      <c r="E255" s="3">
+        <v>2</v>
+      </c>
+      <c r="F255" s="3">
+        <v>69.540000000000006</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B256" s="3">
-        <v>4.0</v>
+      <c r="B256" s="2">
+        <v>4</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>9</v>
@@ -6335,19 +6386,19 @@
       <c r="D256" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E256" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F256" s="4">
+      <c r="E256" s="3">
+        <v>2</v>
+      </c>
+      <c r="F256" s="3">
         <v>45.45</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A257" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B257" s="3">
-        <v>4.0</v>
+      <c r="B257" s="2">
+        <v>4</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>7</v>
@@ -6355,19 +6406,19 @@
       <c r="D257" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E257" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F257" s="4">
+      <c r="E257" s="3">
+        <v>2</v>
+      </c>
+      <c r="F257" s="3">
         <v>61.16</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A258" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B258" s="3">
-        <v>4.0</v>
+      <c r="B258" s="2">
+        <v>4</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>9</v>
@@ -6375,19 +6426,19 @@
       <c r="D258" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E258" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F258" s="4">
+      <c r="E258" s="3">
+        <v>2</v>
+      </c>
+      <c r="F258" s="3">
         <v>67.81</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B259" s="3">
-        <v>14.0</v>
+      <c r="B259" s="2">
+        <v>14</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>7</v>
@@ -6395,19 +6446,19 @@
       <c r="D259" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E259" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F259" s="4">
+      <c r="E259" s="3">
+        <v>1</v>
+      </c>
+      <c r="F259" s="3">
         <v>68.97</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B260" s="3">
-        <v>14.0</v>
+      <c r="B260" s="2">
+        <v>14</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>9</v>
@@ -6415,19 +6466,19 @@
       <c r="D260" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E260" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F260" s="4">
+      <c r="E260" s="3">
+        <v>2</v>
+      </c>
+      <c r="F260" s="3">
         <v>59.9</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B261" s="3">
-        <v>6.0</v>
+      <c r="B261" s="2">
+        <v>6</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>7</v>
@@ -6435,19 +6486,19 @@
       <c r="D261" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E261" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F261" s="4">
+      <c r="E261" s="3">
+        <v>3</v>
+      </c>
+      <c r="F261" s="3">
         <v>69.06</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B262" s="3">
-        <v>6.0</v>
+      <c r="B262" s="2">
+        <v>6</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>9</v>
@@ -6455,19 +6506,19 @@
       <c r="D262" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E262" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F262" s="4">
+      <c r="E262" s="3">
+        <v>3</v>
+      </c>
+      <c r="F262" s="3">
         <v>68.08</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B263" s="3">
-        <v>15.0</v>
+      <c r="B263" s="2">
+        <v>15</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>7</v>
@@ -6475,19 +6526,19 @@
       <c r="D263" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E263" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F263" s="4">
+      <c r="E263" s="3">
+        <v>2</v>
+      </c>
+      <c r="F263" s="3">
         <v>42.34</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B264" s="3">
-        <v>15.0</v>
+      <c r="B264" s="2">
+        <v>15</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>9</v>
@@ -6495,19 +6546,19 @@
       <c r="D264" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E264" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F264" s="4">
+      <c r="E264" s="3">
+        <v>1</v>
+      </c>
+      <c r="F264" s="3">
         <v>58.25</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B265" s="3">
-        <v>14.0</v>
+      <c r="B265" s="2">
+        <v>14</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>7</v>
@@ -6515,19 +6566,19 @@
       <c r="D265" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E265" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F265" s="4">
+      <c r="E265" s="3">
+        <v>1</v>
+      </c>
+      <c r="F265" s="3">
         <v>56.41</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B266" s="3">
-        <v>14.0</v>
+      <c r="B266" s="2">
+        <v>14</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>9</v>
@@ -6535,19 +6586,19 @@
       <c r="D266" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E266" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F266" s="4">
+      <c r="E266" s="3">
+        <v>1</v>
+      </c>
+      <c r="F266" s="3">
         <v>77.94</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B267" s="3">
-        <v>6.0</v>
+      <c r="B267" s="2">
+        <v>6</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>7</v>
@@ -6555,19 +6606,19 @@
       <c r="D267" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E267" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F267" s="4">
+      <c r="E267" s="3">
+        <v>1</v>
+      </c>
+      <c r="F267" s="3">
         <v>74.05</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B268" s="3">
-        <v>6.0</v>
+      <c r="B268" s="2">
+        <v>6</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>9</v>
@@ -6575,19 +6626,19 @@
       <c r="D268" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E268" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F268" s="4">
+      <c r="E268" s="3">
+        <v>1</v>
+      </c>
+      <c r="F268" s="3">
         <v>66.08</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B269" s="3">
-        <v>10.0</v>
+      <c r="B269" s="2">
+        <v>10</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>7</v>
@@ -6595,19 +6646,19 @@
       <c r="D269" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E269" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F269" s="4">
+      <c r="E269" s="3">
+        <v>1</v>
+      </c>
+      <c r="F269" s="3">
         <v>43.54</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A270" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B270" s="3">
-        <v>10.0</v>
+      <c r="B270" s="2">
+        <v>10</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>9</v>
@@ -6615,19 +6666,19 @@
       <c r="D270" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E270" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F270" s="4">
+      <c r="E270" s="3">
+        <v>2</v>
+      </c>
+      <c r="F270" s="3">
         <v>50.44</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B271" s="3">
-        <v>12.0</v>
+      <c r="B271" s="2">
+        <v>12</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>7</v>
@@ -6635,19 +6686,19 @@
       <c r="D271" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E271" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F271" s="4">
+      <c r="E271" s="3">
+        <v>2</v>
+      </c>
+      <c r="F271" s="3">
         <v>51.75</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B272" s="3">
-        <v>12.0</v>
+      <c r="B272" s="2">
+        <v>12</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>9</v>
@@ -6655,19 +6706,19 @@
       <c r="D272" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E272" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F272" s="4">
-        <v>70.96</v>
-      </c>
-    </row>
-    <row r="273">
+      <c r="E272" s="3">
+        <v>2</v>
+      </c>
+      <c r="F272" s="3">
+        <v>70.959999999999994</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A273" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B273" s="3">
-        <v>7.0</v>
+      <c r="B273" s="2">
+        <v>7</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>7</v>
@@ -6675,19 +6726,19 @@
       <c r="D273" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E273" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F273" s="4">
-        <v>66.29</v>
-      </c>
-    </row>
-    <row r="274">
+      <c r="E273" s="3">
+        <v>1</v>
+      </c>
+      <c r="F273" s="3">
+        <v>66.290000000000006</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A274" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B274" s="3">
-        <v>7.0</v>
+      <c r="B274" s="2">
+        <v>7</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>9</v>
@@ -6695,19 +6746,19 @@
       <c r="D274" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E274" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F274" s="4">
+      <c r="E274" s="3">
+        <v>2</v>
+      </c>
+      <c r="F274" s="3">
         <v>60.42</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A275" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B275" s="3">
-        <v>5.0</v>
+      <c r="B275" s="2">
+        <v>5</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>7</v>
@@ -6715,19 +6766,19 @@
       <c r="D275" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E275" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F275" s="4">
+      <c r="E275" s="3">
+        <v>2</v>
+      </c>
+      <c r="F275" s="3">
         <v>42.34</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A276" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B276" s="3">
-        <v>5.0</v>
+      <c r="B276" s="2">
+        <v>5</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>9</v>
@@ -6736,12 +6787,12 @@
         <v>292</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B277" s="3">
-        <v>14.0</v>
+      <c r="B277" s="2">
+        <v>14</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>7</v>
@@ -6749,19 +6800,19 @@
       <c r="D277" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E277" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F277" s="4">
+      <c r="E277" s="3">
+        <v>3</v>
+      </c>
+      <c r="F277" s="3">
         <v>61.95</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B278" s="3">
-        <v>14.0</v>
+      <c r="B278" s="2">
+        <v>14</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>9</v>
@@ -6769,19 +6820,19 @@
       <c r="D278" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E278" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F278" s="4">
+      <c r="E278" s="3">
+        <v>1</v>
+      </c>
+      <c r="F278" s="3">
         <v>62.51</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B279" s="3">
-        <v>10.0</v>
+      <c r="B279" s="2">
+        <v>10</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>7</v>
@@ -6789,19 +6840,19 @@
       <c r="D279" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E279" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F279" s="4">
+      <c r="E279" s="3">
+        <v>2</v>
+      </c>
+      <c r="F279" s="3">
         <v>52.66</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B280" s="3">
-        <v>10.0</v>
+      <c r="B280" s="2">
+        <v>10</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>9</v>
@@ -6809,19 +6860,19 @@
       <c r="D280" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E280" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F280" s="4">
+      <c r="E280" s="3">
+        <v>2</v>
+      </c>
+      <c r="F280" s="3">
         <v>55.31</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A281" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B281" s="3">
-        <v>9.0</v>
+      <c r="B281" s="2">
+        <v>9</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>7</v>
@@ -6829,19 +6880,19 @@
       <c r="D281" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E281" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F281" s="4">
+      <c r="E281" s="3">
+        <v>2</v>
+      </c>
+      <c r="F281" s="3">
         <v>41.51</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A282" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B282" s="3">
-        <v>9.0</v>
+      <c r="B282" s="2">
+        <v>9</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>9</v>
@@ -6849,19 +6900,19 @@
       <c r="D282" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E282" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F282" s="4">
-        <v>69.9</v>
-      </c>
-    </row>
-    <row r="283">
+      <c r="E282" s="3">
+        <v>2</v>
+      </c>
+      <c r="F282" s="3">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B283" s="3">
-        <v>13.0</v>
+      <c r="B283" s="2">
+        <v>13</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>7</v>
@@ -6869,19 +6920,19 @@
       <c r="D283" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E283" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F283" s="4">
+      <c r="E283" s="3">
+        <v>2</v>
+      </c>
+      <c r="F283" s="3">
         <v>54.32</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A284" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B284" s="3">
-        <v>13.0</v>
+      <c r="B284" s="2">
+        <v>13</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>9</v>
@@ -6889,19 +6940,19 @@
       <c r="D284" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E284" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F284" s="4">
+      <c r="E284" s="3">
+        <v>2</v>
+      </c>
+      <c r="F284" s="3">
         <v>80.92</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B285" s="3">
-        <v>5.0</v>
+      <c r="B285" s="2">
+        <v>5</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>7</v>
@@ -6909,19 +6960,19 @@
       <c r="D285" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E285" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F285" s="4">
+      <c r="E285" s="3">
+        <v>3</v>
+      </c>
+      <c r="F285" s="3">
         <v>70.53</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A286" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B286" s="3">
-        <v>5.0</v>
+      <c r="B286" s="2">
+        <v>5</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>9</v>
@@ -6929,19 +6980,19 @@
       <c r="D286" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E286" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F286" s="4">
+      <c r="E286" s="3">
+        <v>2</v>
+      </c>
+      <c r="F286" s="3">
         <v>56.85</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A287" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B287" s="3">
-        <v>9.0</v>
+      <c r="B287" s="2">
+        <v>9</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>7</v>
@@ -6949,19 +7000,19 @@
       <c r="D287" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E287" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F287" s="4">
+      <c r="E287" s="3">
+        <v>2</v>
+      </c>
+      <c r="F287" s="3">
         <v>51.48</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A288" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B288" s="3">
-        <v>9.0</v>
+      <c r="B288" s="2">
+        <v>9</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>9</v>
@@ -6969,19 +7020,19 @@
       <c r="D288" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E288" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F288" s="4">
+      <c r="E288" s="3">
+        <v>2</v>
+      </c>
+      <c r="F288" s="3">
         <v>75.05</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A289" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B289" s="3">
-        <v>7.0</v>
+      <c r="B289" s="2">
+        <v>7</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>7</v>
@@ -6989,19 +7040,19 @@
       <c r="D289" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E289" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F289" s="4">
+      <c r="E289" s="3">
+        <v>2</v>
+      </c>
+      <c r="F289" s="3">
         <v>60.82</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A290" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B290" s="3">
-        <v>7.0</v>
+      <c r="B290" s="2">
+        <v>7</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>9</v>
@@ -7009,19 +7060,19 @@
       <c r="D290" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E290" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F290" s="4">
+      <c r="E290" s="3">
+        <v>1</v>
+      </c>
+      <c r="F290" s="3">
         <v>75.87</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B291" s="3">
-        <v>12.0</v>
+      <c r="B291" s="2">
+        <v>12</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>7</v>
@@ -7029,19 +7080,19 @@
       <c r="D291" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E291" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F291" s="4">
+      <c r="E291" s="3">
+        <v>2</v>
+      </c>
+      <c r="F291" s="3">
         <v>65.83</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A292" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B292" s="3">
-        <v>12.0</v>
+      <c r="B292" s="2">
+        <v>12</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>9</v>
@@ -7049,19 +7100,19 @@
       <c r="D292" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E292" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F292" s="4">
+      <c r="E292" s="3">
+        <v>3</v>
+      </c>
+      <c r="F292" s="3">
         <v>74.39</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B293" s="3">
-        <v>11.0</v>
+      <c r="B293" s="2">
+        <v>11</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>7</v>
@@ -7069,19 +7120,19 @@
       <c r="D293" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E293" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F293" s="4">
+      <c r="E293" s="3">
+        <v>3</v>
+      </c>
+      <c r="F293" s="3">
         <v>62.47</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B294" s="3">
-        <v>11.0</v>
+      <c r="B294" s="2">
+        <v>11</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>9</v>
@@ -7089,19 +7140,19 @@
       <c r="D294" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="E294" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F294" s="4">
+      <c r="E294" s="3">
+        <v>2</v>
+      </c>
+      <c r="F294" s="3">
         <v>66.28</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B295" s="3">
-        <v>13.0</v>
+      <c r="B295" s="2">
+        <v>13</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>7</v>
@@ -7109,19 +7160,19 @@
       <c r="D295" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E295" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F295" s="4">
+      <c r="E295" s="3">
+        <v>2</v>
+      </c>
+      <c r="F295" s="3">
         <v>67.42</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B296" s="3">
-        <v>13.0</v>
+      <c r="B296" s="2">
+        <v>13</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>9</v>
@@ -7129,19 +7180,19 @@
       <c r="D296" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E296" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="F296" s="4">
+      <c r="E296" s="3">
+        <v>2</v>
+      </c>
+      <c r="F296" s="3">
         <v>73.12</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B297" s="3">
-        <v>12.0</v>
+      <c r="B297" s="2">
+        <v>12</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>9</v>
@@ -7150,181 +7201,252 @@
         <v>313</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BFE1B9-7C91-004F-8981-59B31E22AA14}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Contact Angle Measurements.xlsx
+++ b/Data/Contact Angle Measurements.xlsx
@@ -5,18 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madisonplunkert/Documents/GitHub/Leaf-surface-traits-2024/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madisonplunkert/Documents/GitHub/Salt-spray-adaptation-2025/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC8F27E-5F17-404F-BD53-3569038B23E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACD210C-AC63-254B-A85F-E0ED133AD598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="4420" windowWidth="29400" windowHeight="16900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -968,9 +981,6 @@
     <t>Column</t>
   </si>
   <si>
-    <t>Info</t>
-  </si>
-  <si>
     <t>Population code, see Table S1 for latitude/longitude coordinates</t>
   </si>
   <si>
@@ -987,6 +997,9 @@
   </si>
   <si>
     <t>Subjective quality score for contact angle image, as follows: A high-quality image (3) will have well-defined droplet edges, and the interface between the droplet and the leaf surface will be easy to see. The droplet will also be in profile and symmetrical. A medium-quality image (2) will not meet these criteria, but the contact angle can still be estimated. A low-quality image (1) is unreliable.</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -1004,11 +1017,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7385,7 +7400,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7395,7 +7410,7 @@
         <v>314</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -7403,7 +7418,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -7411,7 +7426,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -7419,7 +7434,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -7427,7 +7442,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -7435,7 +7450,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -7443,7 +7458,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
